--- a/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1307 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r538379906-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>56759</t>
+  </si>
+  <si>
+    <t>99590</t>
+  </si>
+  <si>
+    <t>538379906</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Canton weekend</t>
+  </si>
+  <si>
+    <t>Our yearly family trip to Canton is made easier with the great staff at the Quality Inn. Betty made check in a breeze and I appreciated the phone call checking to make sure about our arrival time. Options for breakfast were varied and included yogurts, waffles, bacon, and fresh fruits. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Our yearly family trip to Canton is made easier with the great staff at the Quality Inn. Betty made check in a breeze and I appreciated the phone call checking to make sure about our arrival time. Options for breakfast were varied and included yogurts, waffles, bacon, and fresh fruits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r534888282-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>534888282</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>I was a little afraid to stay here because I’ve been to other quality inns that weren’t great but this one was awesome! Everything was clean and the beds were comfy! It had a really good breakfast too! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>I was a little afraid to stay here because I’ve been to other quality inns that weren’t great but this one was awesome! Everything was clean and the beds were comfy! It had a really good breakfast too! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r529135935-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>529135935</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay.</t>
+  </si>
+  <si>
+    <t>I booked only one night and the hotel was fine. I was finishing my scuba certification at Clear Lake Scuba Park and the Quality Inn was a great place to stay. Room was clean. The front desk was polite and efficient. I would be happy to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>I booked only one night and the hotel was fine. I was finishing my scuba certification at Clear Lake Scuba Park and the Quality Inn was a great place to stay. Room was clean. The front desk was polite and efficient. I would be happy to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r492191669-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>492191669</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place for great price </t>
+  </si>
+  <si>
+    <t>A friend recommended this place for our quick trip to Terrell. I highly recommend it. Nice, clean rooms. (Get the king bed room. It has a big jacuzzi tub that is in the room with the bed.) Bathroom was clean and shower was hot, with good pressure. Hotel is located well, about three minutes from the outlet mall. I was concerned when I saw the low prices. Wondered if there may be some issue. Only issue I saw was that the pool was closed, which didn't matter to me. Really good stay for us. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>A friend recommended this place for our quick trip to Terrell. I highly recommend it. Nice, clean rooms. (Get the king bed room. It has a big jacuzzi tub that is in the room with the bed.) Bathroom was clean and shower was hot, with good pressure. Hotel is located well, about three minutes from the outlet mall. I was concerned when I saw the low prices. Wondered if there may be some issue. Only issue I saw was that the pool was closed, which didn't matter to me. Really good stay for us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r484359539-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>484359539</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Military Friendly... A must Stay !!</t>
+  </si>
+  <si>
+    <t>This was just a wonderful place to stay after driving across country from Seattle, the staff was great!! Spent about a hour in the in room hot tub and my body felt like jello, the bed was super comfortable. Did not want to leave. Woke up at for breakfast and to pack up to go. And what do you know fell back to sleep when my head hit the soft pillows. This is a must do stop from being on the road. I even had to pull. Back the blankets to see what type of mattress I was sleeping on !!! Love this place well worth the money!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>This was just a wonderful place to stay after driving across country from Seattle, the staff was great!! Spent about a hour in the in room hot tub and my body felt like jello, the bed was super comfortable. Did not want to leave. Woke up at for breakfast and to pack up to go. And what do you know fell back to sleep when my head hit the soft pillows. This is a must do stop from being on the road. I even had to pull. Back the blankets to see what type of mattress I was sleeping on !!! Love this place well worth the money!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r480038370-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>480038370</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Awesome Front Desk</t>
+  </si>
+  <si>
+    <t>Five stars for Ashtyn at the front desk,  She went above and beyond to make sure we were happy with our accommodations.  She was very conscientious in making sure that her customers were happy.  There was some people at the hotel next door that were revering their tuck engines and just being a nuisance.  They did stop but she made it her business that it didn't interfere with the people in her hotel. Ashtyn was on the younger side but knew how to handle herself above her years.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Five stars for Ashtyn at the front desk,  She went above and beyond to make sure we were happy with our accommodations.  She was very conscientious in making sure that her customers were happy.  There was some people at the hotel next door that were revering their tuck engines and just being a nuisance.  They did stop but she made it her business that it didn't interfere with the people in her hotel. Ashtyn was on the younger side but knew how to handle herself above her years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r435066115-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>435066115</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Not nearly as good as it once was</t>
+  </si>
+  <si>
+    <t>This was once a nice, clean place, with a good breakfast. Not anymore! The employees are very helpful and nice. Everything else is going down. Bathroom was filthy and even some towels were soiled. We have stayed here one or two weekends a year for 12 years. Not anymore!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, Front Office Manager at Quality Inn and Suites, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>This was once a nice, clean place, with a good breakfast. Not anymore! The employees are very helpful and nice. Everything else is going down. Bathroom was filthy and even some towels were soiled. We have stayed here one or two weekends a year for 12 years. Not anymore!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r434678341-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>434678341</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Not much quality at this Quality Inn</t>
+  </si>
+  <si>
+    <t>Staying here for First Monday Trade Days in Canton, TX.  On arrival via a gravel and broken pavement road, the entrance, the lobby, the stairs and the hallways were not clean.  However the room was clean, but dated.  There is no elevator to the second floor, only a 20 step winding staircase.  The pool and hot tub were closed.  The room we were assigned had not been made up from the last guests.  A different room was then assigned.  Stay here only if you have to.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Staying here for First Monday Trade Days in Canton, TX.  On arrival via a gravel and broken pavement road, the entrance, the lobby, the stairs and the hallways were not clean.  However the room was clean, but dated.  There is no elevator to the second floor, only a 20 step winding staircase.  The pool and hot tub were closed.  The room we were assigned had not been made up from the last guests.  A different room was then assigned.  Stay here only if you have to.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r432857195-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>432857195</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Right next to I - 20, across from the Factory Outlet Mall</t>
+  </si>
+  <si>
+    <t>Qualtiy Inn is located on the north side of I - 20, at the Highway 34 exit.  The Terrell Factory Outlet Mall is just to the south, across the interstate highway.  There is a large QuikTrip Service Station nearby.  When going north on Highway 34 you need to turn left on Mira Place to reach the motel.  The small street is right beside Schlotzsky's Deli.  I found Mira Place to be one of the bumpiest small streets in Texas.  It definitely needs to be repaved.  There are just two motels at the end of the street.  One is Motel 6, on your left, and Quality Inn, on your right.  I've stayed at both motels, and Qualtiy Inn is superior to Motel 6, but is more expensive.  It is pretty close to I - 20, so if you are a light sleeper, you may hear the sound of trucks passing by during the night.  I didn't have this problem, since my room faced a large grassy field to the north.  With all that being said, I found Quality Inn in Terrell to be your basic motel.  Nothing fancy.  A place to spend the night, and then head down the highway the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Qualtiy Inn is located on the north side of I - 20, at the Highway 34 exit.  The Terrell Factory Outlet Mall is just to the south, across the interstate highway.  There is a large QuikTrip Service Station nearby.  When going north on Highway 34 you need to turn left on Mira Place to reach the motel.  The small street is right beside Schlotzsky's Deli.  I found Mira Place to be one of the bumpiest small streets in Texas.  It definitely needs to be repaved.  There are just two motels at the end of the street.  One is Motel 6, on your left, and Quality Inn, on your right.  I've stayed at both motels, and Qualtiy Inn is superior to Motel 6, but is more expensive.  It is pretty close to I - 20, so if you are a light sleeper, you may hear the sound of trucks passing by during the night.  I didn't have this problem, since my room faced a large grassy field to the north.  With all that being said, I found Quality Inn in Terrell to be your basic motel.  Nothing fancy.  A place to spend the night, and then head down the highway the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r392897994-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>392897994</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Beds</t>
+  </si>
+  <si>
+    <t>Stayed here on a long weekend trip with friends.  Beds were very comfortable, and room was clean.  The room did have a "smoky" smell to it, and it was supposed to be a non-smoking room.  I would stay here again if I'm ever back in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here on a long weekend trip with friends.  Beds were very comfortable, and room was clean.  The room did have a "smoky" smell to it, and it was supposed to be a non-smoking room.  I would stay here again if I'm ever back in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r388495685-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>388495685</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>It's not great</t>
+  </si>
+  <si>
+    <t>Stayed here for work in the area. Booked two rooms. Didn't have any bad experiences. The hotel is old and dated but it will do in a tight spot. Wouldn't go back unless I had no other choice. Would prefer to pay the extra money and stay at the comfort inn or Hampton.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for work in the area. Booked two rooms. Didn't have any bad experiences. The hotel is old and dated but it will do in a tight spot. Wouldn't go back unless I had no other choice. Would prefer to pay the extra money and stay at the comfort inn or Hampton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r369788140-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>369788140</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>It'll do</t>
+  </si>
+  <si>
+    <t>Rooms were clean, beds were comfortable, staff was helpful. Older property could use a face lift but the place was clean and that means a lot. I have  stayed in nicer rooms for the same price but I have also stayed in worse rooms. All in all its just a place to sleep nothing really outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were clean, beds were comfortable, staff was helpful. Older property could use a face lift but the place was clean and that means a lot. I have  stayed in nicer rooms for the same price but I have also stayed in worse rooms. All in all its just a place to sleep nothing really outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r358168028-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>358168028</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Very run down hotel.</t>
+  </si>
+  <si>
+    <t>Very run down hotel, staff knew only the basics of customer service.  When I requested sheets and blankets for the sofa bed, I was given one sheet and one unfolded/disorganized bed cover.  I had to ask for pillows and a second blanket.  The bed cover had a cigarette hole in it.  The hotel lobby smelled like cigarette.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Very run down hotel, staff knew only the basics of customer service.  When I requested sheets and blankets for the sofa bed, I was given one sheet and one unfolded/disorganized bed cover.  I had to ask for pillows and a second blanket.  The bed cover had a cigarette hole in it.  The hotel lobby smelled like cigarette.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r347948731-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>347948731</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Mehh</t>
+  </si>
+  <si>
+    <t>No elevator in the hotel would be the biggest negative.  Room was clean and bed was comfortable.  We were told it would have a hot breakfast, but all that was offered hot was waffles.  The orange juice was sour and the apple juice tasted like water.  Ended up eating yogurt.  All the rooms said "Non Smoking" but someone was breaking the rules because the second floor smelled awful.  For the price though, it was a nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>No elevator in the hotel would be the biggest negative.  Room was clean and bed was comfortable.  We were told it would have a hot breakfast, but all that was offered hot was waffles.  The orange juice was sour and the apple juice tasted like water.  Ended up eating yogurt.  All the rooms said "Non Smoking" but someone was breaking the rules because the second floor smelled awful.  For the price though, it was a nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r328729049-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>328729049</t>
+  </si>
+  <si>
+    <t>11/23/2015</t>
+  </si>
+  <si>
+    <t>Clean but close to interstate</t>
+  </si>
+  <si>
+    <t>My husband and I spent one night here on our travel through Texas.  We had a king suite.  The room was clean, the bed was comfortable, and the sofa was comfortable.  The service was good and the fridge in our room was cold.  This is  a two story hotel with no elevator.  I have a bad knee so if I were to stay more than one night that would be a problem.  The decor was dated but it wasn't shabby.  We could hear the road noise.  There are a number of restaurants close by.  They have the typical fee breakfast.  I got a good rate so I suppose I would stay there again because of the rate and the cleanliness.  The wifi was practically non exitant which was totally annoying.  I had to change some of my upcoming travel plans but I had to do it by phoneMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded November 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I spent one night here on our travel through Texas.  We had a king suite.  The room was clean, the bed was comfortable, and the sofa was comfortable.  The service was good and the fridge in our room was cold.  This is  a two story hotel with no elevator.  I have a bad knee so if I were to stay more than one night that would be a problem.  The decor was dated but it wasn't shabby.  We could hear the road noise.  There are a number of restaurants close by.  They have the typical fee breakfast.  I got a good rate so I suppose I would stay there again because of the rate and the cleanliness.  The wifi was practically non exitant which was totally annoying.  I had to change some of my upcoming travel plans but I had to do it by phoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r291906629-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>291906629</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Well worth a stop over</t>
+  </si>
+  <si>
+    <t>Just 30 minutes from Dallas on the Interstate 20. Room is spacious and great value for money. King bed in the room. Breakfast room large but they use paper plates. Ask for a room on opposite side from the interstate. Fast free wifi available. Staff helpful especially Victoria on the front desk. Across the interstate from the Outlet Centre.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Just 30 minutes from Dallas on the Interstate 20. Room is spacious and great value for money. King bed in the room. Breakfast room large but they use paper plates. Ask for a room on opposite side from the interstate. Fast free wifi available. Staff helpful especially Victoria on the front desk. Across the interstate from the Outlet Centre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r282873298-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>282873298</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Clean, but had to run around</t>
+  </si>
+  <si>
+    <t>The room was fine but when we arrived my husband wasn't feeling well and just wanted to relax. So the man at desk gave us a room but said "it SHOULD be clean". So we walk to far end of hotel, go inside and of course it's not clean! So I have to go back, wait to find another room, and then haul our stuff up steps cause there is no elevator. People in room next to us had a dog that would bark whenever it heard a noise too. Just unpleasantMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>The room was fine but when we arrived my husband wasn't feeling well and just wanted to relax. So the man at desk gave us a room but said "it SHOULD be clean". So we walk to far end of hotel, go inside and of course it's not clean! So I have to go back, wait to find another room, and then haul our stuff up steps cause there is no elevator. People in room next to us had a dog that would bark whenever it heard a noise too. Just unpleasantMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r281668859-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>281668859</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Wonderful place on I-20 close to Dallas</t>
+  </si>
+  <si>
+    <t>We wanted to get past Dallas heading east on I-20, and Terrell was a perfect place to stop for the night. We got there late, but service was good, and the rooms were a decent. We even had room for a roll-away bed. The only letdown was that there was not a fridge in our room. There HAD been one there recently because you could see the dust around where it HAD sat. By the way, it is across the overpass from Tanger Outlets although we did not have time to shop there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>We wanted to get past Dallas heading east on I-20, and Terrell was a perfect place to stop for the night. We got there late, but service was good, and the rooms were a decent. We even had room for a roll-away bed. The only letdown was that there was not a fridge in our room. There HAD been one there recently because you could see the dust around where it HAD sat. By the way, it is across the overpass from Tanger Outlets although we did not have time to shop there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242964786-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>242964786</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>This comfort inn was a very nice hotel.  Staff was very friendly.  The rooms were very clean.  The breakfast was as good as you can get at any comfort inn.  If you plan on stay a night or more in Terrell, Tx you will enjoy your stay at this comfort inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>This comfort inn was a very nice hotel.  Staff was very friendly.  The rooms were very clean.  The breakfast was as good as you can get at any comfort inn.  If you plan on stay a night or more in Terrell, Tx you will enjoy your stay at this comfort inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242637412-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>242637412</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>I was looking for a comfortable sleep after driving from Houston and  was surprised with a Jacuzzi room in the first floor.It's an old building. I enjoyed reading the papers in the Jacuzzi. Later I realized it was not 100% clean. The bed was comfortable and helped me to decompress. The Ac was working fine. The Bathroom was clean.The continental breakfast was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was looking for a comfortable sleep after driving from Houston and  was surprised with a Jacuzzi room in the first floor.It's an old building. I enjoyed reading the papers in the Jacuzzi. Later I realized it was not 100% clean. The bed was comfortable and helped me to decompress. The Ac was working fine. The Bathroom was clean.The continental breakfast was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242557523-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>242557523</t>
+  </si>
+  <si>
+    <t>Somewhat disappointed, but host responsive, and willing to try again</t>
+  </si>
+  <si>
+    <t>We've stayed here twice before, and were very pleased with the hotel.  It's on the way out of the Dallas area (if you're heading east), was well-maintained, and very economical.  But this time we noted some deficiencies in the cleanliness of the room. The rug needed vacuuming, there was food left in the refrigerator, and we had the sense that the room had not been given the attention that was so obvious during our previous visits.  But the upside was the response by the manager the next day as we checked out.  He was very solicitous and assured us the rooms would be attended to; he also credited our account with Choice Hotel points to make up for the situation.  So, we're willing to try this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here twice before, and were very pleased with the hotel.  It's on the way out of the Dallas area (if you're heading east), was well-maintained, and very economical.  But this time we noted some deficiencies in the cleanliness of the room. The rug needed vacuuming, there was food left in the refrigerator, and we had the sense that the room had not been given the attention that was so obvious during our previous visits.  But the upside was the response by the manager the next day as we checked out.  He was very solicitous and assured us the rooms would be attended to; he also credited our account with Choice Hotel points to make up for the situation.  So, we're willing to try this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r231108676-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>231108676</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Use those mucles, no elevator here!</t>
+  </si>
+  <si>
+    <t>The first room we were given had an a/c that was not working properly (no cold air blowing after 3 hours) in room 110.  The clerk was more than happy to relocate us and we greatly appreciated it.  In agreement with another reviewer, this is an older property that has had a facelift. There is no elevator so be prepared to haul your luggage up a beautiful, curved staircase, Also, the front entrance doors are NOT automatic sliding doors- be prepared to have a spare hand ready. The mattresses have padded covers on them for added comfort, but lack the comfort of pillow-top mattresses.  Parking is in the front of the building, there is only a dirt lot behind the hotel.  However, Sonic, Waffle House, Starbucks and a few convenience stores are located nearby.  Overall, this is an acceptable hotel for a one-night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded September 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2014</t>
+  </si>
+  <si>
+    <t>The first room we were given had an a/c that was not working properly (no cold air blowing after 3 hours) in room 110.  The clerk was more than happy to relocate us and we greatly appreciated it.  In agreement with another reviewer, this is an older property that has had a facelift. There is no elevator so be prepared to haul your luggage up a beautiful, curved staircase, Also, the front entrance doors are NOT automatic sliding doors- be prepared to have a spare hand ready. The mattresses have padded covers on them for added comfort, but lack the comfort of pillow-top mattresses.  Parking is in the front of the building, there is only a dirt lot behind the hotel.  However, Sonic, Waffle House, Starbucks and a few convenience stores are located nearby.  Overall, this is an acceptable hotel for a one-night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r228288864-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>228288864</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>OK place to stay.</t>
+  </si>
+  <si>
+    <t>This Comfort Inn an older property and could use a facelift.  The room was fairly clean and the A/C worked OK.The staff was friendly and courteous.  The breakfast was very basic and limited quantities were available. Wi-Fi was OK.The window glass was cracked and the window was screwed shut so it could not be opened.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>This Comfort Inn an older property and could use a facelift.  The room was fairly clean and the A/C worked OK.The staff was friendly and courteous.  The breakfast was very basic and limited quantities were available. Wi-Fi was OK.The window glass was cracked and the window was screwed shut so it could not be opened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r220265783-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>220265783</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here twice  during our visit to Clear Springs Scuba Park.  The staff is very friendly and helpful.  The free breakfast is great, includes, eggs, waffles, fruit, cereal, yogurt ect.  Only about 20 minute drive to Canton flea marker too!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded August 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I have stayed here twice  during our visit to Clear Springs Scuba Park.  The staff is very friendly and helpful.  The free breakfast is great, includes, eggs, waffles, fruit, cereal, yogurt ect.  Only about 20 minute drive to Canton flea marker too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r190596275-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>190596275</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Very good value, well kept, cheerful</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times over the last year, and have enjoyed my stay both times.  It's a well-kept, secure, clean and welcoming place.  The staff are very responsive and I'd recommend it highly.  The only drawback is that there is no elevator in this two-story building.  If you're on the second story, and depending on how much luggage you have, it may take a couple of trips up and down stairs to bring it all in.  But the other positives easily outweigh this one negative.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here a couple of times over the last year, and have enjoyed my stay both times.  It's a well-kept, secure, clean and welcoming place.  The staff are very responsive and I'd recommend it highly.  The only drawback is that there is no elevator in this two-story building.  If you're on the second story, and depending on how much luggage you have, it may take a couple of trips up and down stairs to bring it all in.  But the other positives easily outweigh this one negative.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r188605234-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>188605234</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for a great price!</t>
+  </si>
+  <si>
+    <t>We stopped at this hotel when traveling on I-20 because of the great reviews and we were not disappointed.  The room was roomy and nicely furnished and the bathroom was beautifully appointed.  Everything was spotless also.  This was a great hotel room especially considering the price!  I highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded December 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2013</t>
+  </si>
+  <si>
+    <t>We stopped at this hotel when traveling on I-20 because of the great reviews and we were not disappointed.  The room was roomy and nicely furnished and the bathroom was beautifully appointed.  Everything was spotless also.  This was a great hotel room especially considering the price!  I highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r186464494-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>186464494</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Very nice place.</t>
+  </si>
+  <si>
+    <t>I stayed for a weekend in November for a diving event at Clear Springs Scuba Park. We've been impressed with other Choice offerings, which was why I picked this one. I was very impressed with the size and cleanliness of the room. It was a huge (at this price point) suite, with king bed on one side and desk/sitting area on the other. A large flat-screen, fridge, and microwave were included. The front desk staff was helpful and friendly. When I needed an extension cord, it took about 2 minutes and a call to the front. Check-in and check-out were both quick and painless. If I had one minor complaint (which is why I gave four stars instead of five), it would be the breakfast. It certainly wasn't 'bad.' There was cereal, bread, milk, juice, coffee, waffles, sausage, and eggs. I was just a little disappointed that the eggs and sausage were from frozen patties, and no other hot items such as potatoes or bacon. Other than that, I was very pleased with everything else about the hotel. Cleanliness is of the utmost importance to me in a hotel, and Comfort didn't disappoint.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded December 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for a weekend in November for a diving event at Clear Springs Scuba Park. We've been impressed with other Choice offerings, which was why I picked this one. I was very impressed with the size and cleanliness of the room. It was a huge (at this price point) suite, with king bed on one side and desk/sitting area on the other. A large flat-screen, fridge, and microwave were included. The front desk staff was helpful and friendly. When I needed an extension cord, it took about 2 minutes and a call to the front. Check-in and check-out were both quick and painless. If I had one minor complaint (which is why I gave four stars instead of five), it would be the breakfast. It certainly wasn't 'bad.' There was cereal, bread, milk, juice, coffee, waffles, sausage, and eggs. I was just a little disappointed that the eggs and sausage were from frozen patties, and no other hot items such as potatoes or bacon. Other than that, I was very pleased with everything else about the hotel. Cleanliness is of the utmost importance to me in a hotel, and Comfort didn't disappoint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181743033-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>181743033</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Nice place at good rate</t>
+  </si>
+  <si>
+    <t>Stayed here Friday night, had a very clean room on 1st floor. Bed were comfortable(pillows not so much). Nice TV, refrigerator and microwave in room. Front desk employee was nice. Breakfast was good. Good location to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here Friday night, had a very clean room on 1st floor. Bed were comfortable(pillows not so much). Nice TV, refrigerator and microwave in room. Front desk employee was nice. Breakfast was good. Good location to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181066774-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>181066774</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Nothing special and could have been cleaner. The jacuzzi didn't work but the desk manager was super nice. He needs to find a job at another hotel.  The pool area was very dirty. There wasn't an elevator and our room was on the far end. It is in a great location for me and I have stayed there twice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2013</t>
+  </si>
+  <si>
+    <t>Nothing special and could have been cleaner. The jacuzzi didn't work but the desk manager was super nice. He needs to find a job at another hotel.  The pool area was very dirty. There wasn't an elevator and our room was on the far end. It is in a great location for me and I have stayed there twice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r180036079-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>180036079</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>very helpful</t>
+  </si>
+  <si>
+    <t>the staff was very helpful trying to resolve my issue.  clean room &amp; worth the extra for security compared to low price next door.  i was also given local maps &amp; good local suggestions by the staff (friendly &amp; chatty).  decent food choices nearby.  definitly will stop if i'm in that area of texas again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>the staff was very helpful trying to resolve my issue.  clean room &amp; worth the extra for security compared to low price next door.  i was also given local maps &amp; good local suggestions by the staff (friendly &amp; chatty).  decent food choices nearby.  definitly will stop if i'm in that area of texas again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r162321900-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>162321900</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Refreshing honesty and integrity!!!</t>
+  </si>
+  <si>
+    <t>We were really pleased with our stay. The location was great . The rooms were clean and quiet.The staff were friendly and the pool and hot tub perfect. The best part of this stay happened after we left though. We were nearly 21/2 hours away when the hotel called us and asked if we left a bag. We were so disappointed when we realized we left our bag with the IPad and some very expensive medications. They sent us a box COD and it arrived 2 days later. We did not expect what we found! Carefully wrapped were all of our items nothing missing!!! I couldn't believe it!! Thank you Hotel staff!!! We will always stay there when in your area!!! I am so thankful for your honesty. What a wonderful Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>We were really pleased with our stay. The location was great . The rooms were clean and quiet.The staff were friendly and the pool and hot tub perfect. The best part of this stay happened after we left though. We were nearly 21/2 hours away when the hotel called us and asked if we left a bag. We were so disappointed when we realized we left our bag with the IPad and some very expensive medications. They sent us a box COD and it arrived 2 days later. We did not expect what we found! Carefully wrapped were all of our items nothing missing!!! I couldn't believe it!! Thank you Hotel staff!!! We will always stay there when in your area!!! I am so thankful for your honesty. What a wonderful Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r159627522-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>159627522</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Thank You, Mack</t>
+  </si>
+  <si>
+    <t>I was one of a large group of car club members who stayed at the hotel for 2 nights.  The service and welcome for our club was excellent.  I particularly want to thank the General Manager, Mack, for a very nice gesture:  I left two personal keys on a key chain in the room when I left to return to my home city.  I talked to Mack on the phone and he personally went to the post office to send the keys back to me in a padded envelope, all at no charge.  This is the kind of thoughtful service which brings customers back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded May 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2013</t>
+  </si>
+  <si>
+    <t>I was one of a large group of car club members who stayed at the hotel for 2 nights.  The service and welcome for our club was excellent.  I particularly want to thank the General Manager, Mack, for a very nice gesture:  I left two personal keys on a key chain in the room when I left to return to my home city.  I talked to Mack on the phone and he personally went to the post office to send the keys back to me in a padded envelope, all at no charge.  This is the kind of thoughtful service which brings customers back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r158630701-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>158630701</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Don't expect much and you won't be disappointed</t>
+  </si>
+  <si>
+    <t>If this is the best Terrell has to offer under $100, then the other properties must be pretty sad. Data:Locally-owned franchisee, not a corporate propertyPaid $71.99 on Tuesday night in late April; booked directly through Choice HotelsAverage wifi speed of 1.2Mbps down (hotel pretty empty)Google has the location wrong...take the first street (Mira Pl.) left after freeway off-ramp/on-ramp, not the 2nd one that Google recommendsDrive slowly on Mira Pl. as you drive in! Road in very bad disrepair and there is one big collapse under the pavement that your car will drag on if you're moving over 15 mphPros:Friendly front counter staffFlat-screen TVFridge and microwave in roomFirm bedsCons: As other guests said, seems old and tired and dirtySeemed to take a long time to get checked in. Not really staff's fault, though. Next to freeway: Request room on other side. Hottub: Hmmm, soak outdoors next to the freeway noise. Pass. Black hair in my old plastic showerPee stain on the underside of old toilet seatSpillage/dirt on stairs (no elevator)After SO MANY complaints about the cleanliness, you'd think they'd fire the housekeeping staff, but maybe they are family and therefore not fire-able. Solution: Show the staff these reviews!MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2013</t>
+  </si>
+  <si>
+    <t>If this is the best Terrell has to offer under $100, then the other properties must be pretty sad. Data:Locally-owned franchisee, not a corporate propertyPaid $71.99 on Tuesday night in late April; booked directly through Choice HotelsAverage wifi speed of 1.2Mbps down (hotel pretty empty)Google has the location wrong...take the first street (Mira Pl.) left after freeway off-ramp/on-ramp, not the 2nd one that Google recommendsDrive slowly on Mira Pl. as you drive in! Road in very bad disrepair and there is one big collapse under the pavement that your car will drag on if you're moving over 15 mphPros:Friendly front counter staffFlat-screen TVFridge and microwave in roomFirm bedsCons: As other guests said, seems old and tired and dirtySeemed to take a long time to get checked in. Not really staff's fault, though. Next to freeway: Request room on other side. Hottub: Hmmm, soak outdoors next to the freeway noise. Pass. Black hair in my old plastic showerPee stain on the underside of old toilet seatSpillage/dirt on stairs (no elevator)After SO MANY complaints about the cleanliness, you'd think they'd fire the housekeeping staff, but maybe they are family and therefore not fire-able. Solution: Show the staff these reviews!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r156070497-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>156070497</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Terrific in Terrell</t>
+  </si>
+  <si>
+    <t>Hotel faces the Highway so request a back room if road noise is an issue. Well appointed rooms with  Flat screen, desk, micro, and refrig. Funky adjustable showerhead, but I got used to it. Typical breakfast nook with sausage, waffles, and eggs in addition to the typical cereal and sweet rolls. Hotel leaves fruit out 24x7 so a snack is always available. The HBO channel 6 did not work and when I advised the front desk they seemed surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Hotel faces the Highway so request a back room if road noise is an issue. Well appointed rooms with  Flat screen, desk, micro, and refrig. Funky adjustable showerhead, but I got used to it. Typical breakfast nook with sausage, waffles, and eggs in addition to the typical cereal and sweet rolls. Hotel leaves fruit out 24x7 so a snack is always available. The HBO channel 6 did not work and when I advised the front desk they seemed surprised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r154809784-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>154809784</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>business trip stay - staff made it feel like home though!</t>
+  </si>
+  <si>
+    <t>I stayed here, along with several colleagues for an extended business trip. The staff, especially the GM, Mack, was very accommodating and willing to go the extra mile every time we needed them. Rooms were clean, quiet and spacious. Thanks again for everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here, along with several colleagues for an extended business trip. The staff, especially the GM, Mack, was very accommodating and willing to go the extra mile every time we needed them. Rooms were clean, quiet and spacious. Thanks again for everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r153001695-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>153001695</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Comfortable and Good Value</t>
+  </si>
+  <si>
+    <t>Good service at check-in (3 am), and the room was clean and comfortable. We slept in too late for breakfast. The non-smoking room was apparently truly non-smoking (smelled fine, and I am very sensitive to the smell of smoke). However, there was a faint smell of smoke in the hallway in the morning. However, it did not move into the room. Overall, good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Good service at check-in (3 am), and the room was clean and comfortable. We slept in too late for breakfast. The non-smoking room was apparently truly non-smoking (smelled fine, and I am very sensitive to the smell of smoke). However, there was a faint smell of smoke in the hallway in the morning. However, it did not move into the room. Overall, good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r145144969-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>145144969</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>Decent price. The hotel had a comfortable room with good tv and Internet. There is plenty to eat in driving and walking distance. The street leading into the hotel has some potholes that could swallow a small car. That's not their fault though its just a warning. It is a little dirty but I have stayed in places that charge 3 times the amount here and were worse. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Decent price. The hotel had a comfortable room with good tv and Internet. There is plenty to eat in driving and walking distance. The street leading into the hotel has some potholes that could swallow a small car. That's not their fault though its just a warning. It is a little dirty but I have stayed in places that charge 3 times the amount here and were worse. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r143684469-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>143684469</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Best yet out of five nights on the road!!</t>
+  </si>
+  <si>
+    <t>For a couple of really weary travellers, we were truly pleased and grateful for our stay at the Comfort Inn.  Clean, quiet and a beautiful, spacious room fit our needs to a tee.  Will definitely stay there when we go back through.  There were six or so hotels to stay at and we're so glad we chose the right one! MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2012</t>
+  </si>
+  <si>
+    <t>For a couple of really weary travellers, we were truly pleased and grateful for our stay at the Comfort Inn.  Clean, quiet and a beautiful, spacious room fit our needs to a tee.  Will definitely stay there when we go back through.  There were six or so hotels to stay at and we're so glad we chose the right one! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r140373342-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>140373342</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Gross water</t>
+  </si>
+  <si>
+    <t>I may just be cynical because I spent an hour trying to find the 'main road' (read La Quinta if you need the main road story) but this was not the greatest place we were on the second floor there was no elevator so we had to haul the bags up the stairs.  The water tasted sulphuric and I could barely gag any down. Otherwise it was great not the cleanest and by far worst water ever actually woke up early to go buy a bottle from Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>I may just be cynical because I spent an hour trying to find the 'main road' (read La Quinta if you need the main road story) but this was not the greatest place we were on the second floor there was no elevator so we had to haul the bags up the stairs.  The water tasted sulphuric and I could barely gag any down. Otherwise it was great not the cleanest and by far worst water ever actually woke up early to go buy a bottle from Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r130309174-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>130309174</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>decent option for overnight</t>
+  </si>
+  <si>
+    <t>The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.
+Pros to Comfort Inn Terrell:  
+Accommodating and friendly front desk staff.  Easy check-in and check-out.
+Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee...The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.Pros to Comfort Inn Terrell:  Accommodating and friendly front desk staff.  Easy check-in and check-out.Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee table, well-equipped work station, fridge and microwave. The bathroom is also a decent size and has a coffeemaker. Consistently strong wi-fi connection at no extra charge.Bed was very comfortable.Little or no interior noise transfer (though when we stayed here, the motel was not at full occupancy).Breakfast is included and offers both hot and cold items. It is served from 6:00 to 10:00 a.m. in a small breakfast area with three tables.Complimentary copies of The Wall Street Journal are available in the lobby.The fitness center, also open at 6:00 a.m., is adequate for a modest workout (very small, though, with one treadmill, one exercise bike, and freeweights.)Computer and printer available in the lobby for guest use (no  business center).Wide range of TV viewing options, including HBO and other premium channels.Cons:Some things are on the cheap side, such as bathroom towels that have seen better days, flimsy individually wrapped plastic drinking cups that leak, and an inexpensive plastic tub-shower combination in the bath . (On the other hand, the multiple-spray shower head is nice.)Housekeeping has a few gaps. The bathroom was not outfitted with two complete sets of towels and wash cloths, so we had to ask for the missing items.Tire whine from nearby I-20 can be heard in the room. However, it was not bad enough to keep us awake, and with the air conditioning running it is not severe.Possibly because of some sort of corporate incest, in order to log onto the internet at Comfort Inn, you must set Google as your homepage.  Of course, this can be undone later, but it irked me.The outdoor hot tub and swimming pool are wedged between the parking lot and the lobby. After a swim, one must drip directly into the lobby from the pool.  Awkward.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded May 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2012</t>
+  </si>
+  <si>
+    <t>The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.
+Pros to Comfort Inn Terrell:  
+Accommodating and friendly front desk staff.  Easy check-in and check-out.
+Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee...The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.Pros to Comfort Inn Terrell:  Accommodating and friendly front desk staff.  Easy check-in and check-out.Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee table, well-equipped work station, fridge and microwave. The bathroom is also a decent size and has a coffeemaker. Consistently strong wi-fi connection at no extra charge.Bed was very comfortable.Little or no interior noise transfer (though when we stayed here, the motel was not at full occupancy).Breakfast is included and offers both hot and cold items. It is served from 6:00 to 10:00 a.m. in a small breakfast area with three tables.Complimentary copies of The Wall Street Journal are available in the lobby.The fitness center, also open at 6:00 a.m., is adequate for a modest workout (very small, though, with one treadmill, one exercise bike, and freeweights.)Computer and printer available in the lobby for guest use (no  business center).Wide range of TV viewing options, including HBO and other premium channels.Cons:Some things are on the cheap side, such as bathroom towels that have seen better days, flimsy individually wrapped plastic drinking cups that leak, and an inexpensive plastic tub-shower combination in the bath . (On the other hand, the multiple-spray shower head is nice.)Housekeeping has a few gaps. The bathroom was not outfitted with two complete sets of towels and wash cloths, so we had to ask for the missing items.Tire whine from nearby I-20 can be heard in the room. However, it was not bad enough to keep us awake, and with the air conditioning running it is not severe.Possibly because of some sort of corporate incest, in order to log onto the internet at Comfort Inn, you must set Google as your homepage.  Of course, this can be undone later, but it irked me.The outdoor hot tub and swimming pool are wedged between the parking lot and the lobby. After a swim, one must drip directly into the lobby from the pool.  Awkward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r127495006-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>127495006</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Excellent Service and Room</t>
+  </si>
+  <si>
+    <t>I stayed 5 days at the Comfort Inn in Terrell, Texas.  The service provided by the manager and his staff was always excellent.   The room was always clean and comfortable.  The breakfast was outstanding - plenty of good selections.  I will be staying again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2012</t>
+  </si>
+  <si>
+    <t>I stayed 5 days at the Comfort Inn in Terrell, Texas.  The service provided by the manager and his staff was always excellent.   The room was always clean and comfortable.  The breakfast was outstanding - plenty of good selections.  I will be staying again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r126363266-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>126363266</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We had a week long trial in Kaufman county and our team stated here. The front desk service was great and accommodated our every need. The rooms were a bit worn but well kept and maintained. I'd stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded March 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2012</t>
+  </si>
+  <si>
+    <t>We had a week long trial in Kaufman county and our team stated here. The front desk service was great and accommodated our every need. The rooms were a bit worn but well kept and maintained. I'd stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r121812995-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>121812995</t>
+  </si>
+  <si>
+    <t>12/16/2011</t>
+  </si>
+  <si>
+    <t>Great Night in Terrell!</t>
+  </si>
+  <si>
+    <t>Traveling with my older parents, we were very tired and looking for a good place to stay at a decent price.  Loved the Comfort Inn in Terrell.  Remodeled recently, new tv's, great looking pool and hot tub, beds comfortable, friendly helpful service.  Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded December 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2011</t>
+  </si>
+  <si>
+    <t>Traveling with my older parents, we were very tired and looking for a good place to stay at a decent price.  Loved the Comfort Inn in Terrell.  Remodeled recently, new tv's, great looking pool and hot tub, beds comfortable, friendly helpful service.  Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119833501-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>119833501</t>
+  </si>
+  <si>
+    <t>10/28/2011</t>
+  </si>
+  <si>
+    <t>Best Customer Service I have Experienced in Years.</t>
+  </si>
+  <si>
+    <t>Mr. Mack Patel:I had the pleasure of staying in your hotel, Comfort Inn at Terrell, Texas, on a return trip from New Mexico to Georgia.  The young lady who waited on me, Ms. Monalisa, did an outstanding job with our accommodations and other needs.  I travel a considerable amount with my job and it is always a pleasure to stay in a clean and safe hotel such as yours in Terrell, Texas.  What is an additional pleasure and surprise is when you encounter such an outstanding employee as Ms. Monalisa who is truly customer service orientated and goes out of her way to ensure each guest needs are addressed.  Please convey my sincere thanks to Ms. Monalisa for the outstanding service she provided during my stay.  This young lady is a true asset to your organization.Thank You,Michael J.BakerMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, Manager at Quality Inn and Suites, responded to this reviewResponded October 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2011</t>
+  </si>
+  <si>
+    <t>Mr. Mack Patel:I had the pleasure of staying in your hotel, Comfort Inn at Terrell, Texas, on a return trip from New Mexico to Georgia.  The young lady who waited on me, Ms. Monalisa, did an outstanding job with our accommodations and other needs.  I travel a considerable amount with my job and it is always a pleasure to stay in a clean and safe hotel such as yours in Terrell, Texas.  What is an additional pleasure and surprise is when you encounter such an outstanding employee as Ms. Monalisa who is truly customer service orientated and goes out of her way to ensure each guest needs are addressed.  Please convey my sincere thanks to Ms. Monalisa for the outstanding service she provided during my stay.  This young lady is a true asset to your organization.Thank You,Michael J.BakerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119692203-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>119692203</t>
+  </si>
+  <si>
+    <t>10/24/2011</t>
+  </si>
+  <si>
+    <t>Basic BUT Good and GREAT Price</t>
+  </si>
+  <si>
+    <t>Spent last night here on the way home from Dallas--didn't get there until midnight but was greeted by very pleasant clerk--found a great bed, good shower and average bed PLUS a great priceMoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, Manager at Quality Inn and Suites, responded to this reviewResponded October 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2011</t>
+  </si>
+  <si>
+    <t>Spent last night here on the way home from Dallas--didn't get there until midnight but was greeted by very pleasant clerk--found a great bed, good shower and average bed PLUS a great priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r110013772-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>110013772</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Best Hotel in Terrell</t>
+  </si>
+  <si>
+    <t>The Comfort Inn lives up to its name. Simply the best place to stay in Terell whether you are here on business or traveling on Interstate 20.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r96286971-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>96286971</t>
+  </si>
+  <si>
+    <t>02/11/2011</t>
+  </si>
+  <si>
+    <t>Very average hotel.</t>
+  </si>
+  <si>
+    <t>This hotel was very average.  The room had a musty, stale smell and the was not very clean.  We would not stay here again.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r94491110-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>94491110</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>Good hotel for the value.</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel twice, once in Sept 2010, and once in Nov 2010.  The first stay was with my wife and we got a free upgrade to a jacuzzi room w/ complimentary bottle of cheap-o champagne.    Second stay was for work with a colleague.Rooms are average, but the beds are comfortable.  There is no elevator so lugging stuff up the stairs is a bit of a pain.  It is priced nicely for the area.  The breakfast in the morning sucks; your typical crappy "continental" breakfast of waffle maker, fruit, cold cereal and juice machine.Hotel staff were pleasant.  Overall for the value, it is a good hotel; would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel twice, once in Sept 2010, and once in Nov 2010.  The first stay was with my wife and we got a free upgrade to a jacuzzi room w/ complimentary bottle of cheap-o champagne.    Second stay was for work with a colleague.Rooms are average, but the beds are comfortable.  There is no elevator so lugging stuff up the stairs is a bit of a pain.  It is priced nicely for the area.  The breakfast in the morning sucks; your typical crappy "continental" breakfast of waffle maker, fruit, cold cereal and juice machine.Hotel staff were pleasant.  Overall for the value, it is a good hotel; would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r52010362-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>52010362</t>
+  </si>
+  <si>
+    <t>12/28/2009</t>
+  </si>
+  <si>
+    <t>Great Value Hotel, Ruined By Ignorance</t>
+  </si>
+  <si>
+    <t>This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. 
+Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.
+Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!
+I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.
+If the charges don't dissapear by the 30th then I'm stuck with filing a...This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.If the charges don't dissapear by the 30th then I'm stuck with filing a dispute with my bank and I'm out the money in the meantime. What an inconvenience!The hotel was nice, but not $325, $160 or worth any of this trouble. If you pay with cash, I'm sure you'll be happy and your money will be safe! Or stay at one of the many other hotels until this place learns to take better care of their customers when there is a problem MR. PATEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. 
+Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.
+Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!
+I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.
+If the charges don't dissapear by the 30th then I'm stuck with filing a...This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.If the charges don't dissapear by the 30th then I'm stuck with filing a dispute with my bank and I'm out the money in the meantime. What an inconvenience!The hotel was nice, but not $325, $160 or worth any of this trouble. If you pay with cash, I'm sure you'll be happy and your money will be safe! Or stay at one of the many other hotels until this place learns to take better care of their customers when there is a problem MR. PATEL!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r40047907-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>40047907</t>
+  </si>
+  <si>
+    <t>09/07/2009</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>We stayed at this Comfort Inn for 2 nights while visiting the nearby flea market in Canton.  The room and property were all very well kept and the staff went out of their way to make sure we were comfortable.  I'd reccommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r28145903-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>28145903</t>
+  </si>
+  <si>
+    <t>04/16/2009</t>
+  </si>
+  <si>
+    <t>Great Rates, Great Staff, Great Rooms, GREAT EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>The hotel has been recently renovated and everything was new. Great Price. Jacuzzi Suites are awesome with large jacuzzi's and you get a bottle of champagne with your reservation. The staff is absolutely the best. Friendly, helpful, professionally dressed and always ready to help with a smile. Breakfast was good. I have no complaints whatsoever. Itt was a wonderful experience and I highly recommend this Hotel to anyone traveling through Terrell, Texas. Worth stoping in even if Terrell, Tx is not your final destination.  Most of the other Hotel guest were business professionals and families traveling for fun.  This hotel does not have any local guest that are there for ,partying and disturbing the guest that are traveling. I can't say enough good about the Comfort Inn in Terrell, Texas. Reasonable Rates, Great Service, Great Rooms!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>The hotel has been recently renovated and everything was new. Great Price. Jacuzzi Suites are awesome with large jacuzzi's and you get a bottle of champagne with your reservation. The staff is absolutely the best. Friendly, helpful, professionally dressed and always ready to help with a smile. Breakfast was good. I have no complaints whatsoever. Itt was a wonderful experience and I highly recommend this Hotel to anyone traveling through Terrell, Texas. Worth stoping in even if Terrell, Tx is not your final destination.  Most of the other Hotel guest were business professionals and families traveling for fun.  This hotel does not have any local guest that are there for ,partying and disturbing the guest that are traveling. I can't say enough good about the Comfort Inn in Terrell, Texas. Reasonable Rates, Great Service, Great Rooms!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1946,3429 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>167</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>177</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>196</v>
+      </c>
+      <c r="X18" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>205</v>
+      </c>
+      <c r="X19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>209</v>
+      </c>
+      <c r="J20" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>177</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>241</v>
+      </c>
+      <c r="X24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>177</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>275</v>
+      </c>
+      <c r="O28" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>279</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="O29" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>289</v>
+      </c>
+      <c r="J30" t="s">
+        <v>290</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>293</v>
+      </c>
+      <c r="O30" t="s">
+        <v>177</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>302</v>
+      </c>
+      <c r="O31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>307</v>
+      </c>
+      <c r="J32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>319</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>320</v>
+      </c>
+      <c r="X33" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s">
+        <v>327</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s">
+        <v>177</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>328</v>
+      </c>
+      <c r="X34" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>331</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" t="s">
+        <v>333</v>
+      </c>
+      <c r="K35" t="s">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s">
+        <v>335</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>336</v>
+      </c>
+      <c r="O35" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>337</v>
+      </c>
+      <c r="X35" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" t="s">
+        <v>343</v>
+      </c>
+      <c r="L36" t="s">
+        <v>344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>345</v>
+      </c>
+      <c r="O36" t="s">
+        <v>140</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>346</v>
+      </c>
+      <c r="X36" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>349</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>350</v>
+      </c>
+      <c r="J37" t="s">
+        <v>351</v>
+      </c>
+      <c r="K37" t="s">
+        <v>352</v>
+      </c>
+      <c r="L37" t="s">
+        <v>353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>354</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>355</v>
+      </c>
+      <c r="X37" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>358</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>359</v>
+      </c>
+      <c r="J38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38" t="s">
+        <v>361</v>
+      </c>
+      <c r="L38" t="s">
+        <v>362</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="X38" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>367</v>
+      </c>
+      <c r="J39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>369</v>
+      </c>
+      <c r="L39" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>371</v>
+      </c>
+      <c r="X39" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>374</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>375</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>379</v>
+      </c>
+      <c r="X40" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>382</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>383</v>
+      </c>
+      <c r="J41" t="s">
+        <v>384</v>
+      </c>
+      <c r="K41" t="s">
+        <v>385</v>
+      </c>
+      <c r="L41" t="s">
+        <v>386</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>387</v>
+      </c>
+      <c r="O41" t="s">
+        <v>177</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>388</v>
+      </c>
+      <c r="X41" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>392</v>
+      </c>
+      <c r="J42" t="s">
+        <v>393</v>
+      </c>
+      <c r="K42" t="s">
+        <v>394</v>
+      </c>
+      <c r="L42" t="s">
+        <v>395</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>396</v>
+      </c>
+      <c r="X42" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>399</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>400</v>
+      </c>
+      <c r="J43" t="s">
+        <v>401</v>
+      </c>
+      <c r="K43" t="s">
+        <v>402</v>
+      </c>
+      <c r="L43" t="s">
+        <v>403</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>404</v>
+      </c>
+      <c r="X43" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>408</v>
+      </c>
+      <c r="J44" t="s">
+        <v>409</v>
+      </c>
+      <c r="K44" t="s">
+        <v>410</v>
+      </c>
+      <c r="L44" t="s">
+        <v>411</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>412</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>413</v>
+      </c>
+      <c r="X44" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>416</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>417</v>
+      </c>
+      <c r="J45" t="s">
+        <v>418</v>
+      </c>
+      <c r="K45" t="s">
+        <v>419</v>
+      </c>
+      <c r="L45" t="s">
+        <v>420</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>421</v>
+      </c>
+      <c r="O45" t="s">
+        <v>140</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>422</v>
+      </c>
+      <c r="X45" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>426</v>
+      </c>
+      <c r="J46" t="s">
+        <v>427</v>
+      </c>
+      <c r="K46" t="s">
+        <v>428</v>
+      </c>
+      <c r="L46" t="s">
+        <v>429</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>421</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>430</v>
+      </c>
+      <c r="X46" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" t="s">
+        <v>435</v>
+      </c>
+      <c r="K47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O47" t="s">
+        <v>140</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>439</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" t="s">
+        <v>442</v>
+      </c>
+      <c r="L48" t="s">
+        <v>443</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>444</v>
+      </c>
+      <c r="O48" t="s">
+        <v>177</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>446</v>
+      </c>
+      <c r="J49" t="s">
+        <v>447</v>
+      </c>
+      <c r="K49" t="s">
+        <v>448</v>
+      </c>
+      <c r="L49" t="s">
+        <v>449</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>450</v>
+      </c>
+      <c r="O49" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>452</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>453</v>
+      </c>
+      <c r="J50" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50" t="s">
+        <v>456</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>457</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>460</v>
+      </c>
+      <c r="J51" t="s">
+        <v>461</v>
+      </c>
+      <c r="K51" t="s">
+        <v>462</v>
+      </c>
+      <c r="L51" t="s">
+        <v>463</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>464</v>
+      </c>
+      <c r="O51" t="s">
+        <v>177</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>465</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>466</v>
+      </c>
+      <c r="J52" t="s">
+        <v>467</v>
+      </c>
+      <c r="K52" t="s">
+        <v>468</v>
+      </c>
+      <c r="L52" t="s">
+        <v>469</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>470</v>
+      </c>
+      <c r="O52" t="s">
+        <v>177</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="522">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tarey T</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Our yearly family trip to Canton is made easier with the great staff at the Quality Inn. Betty made check in a breeze and I appreciated the phone call checking to make sure about our arrival time. Options for breakfast were varied and included yogurts, waffles, bacon, and fresh fruits. More</t>
   </si>
   <si>
+    <t>Nicolelynette</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r534888282-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I was a little afraid to stay here because I’ve been to other quality inns that weren’t great but this one was awesome! Everything was clean and the beds were comfy! It had a really good breakfast too! More</t>
   </si>
   <si>
+    <t>Gengle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r529135935-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I booked only one night and the hotel was fine. I was finishing my scuba certification at Clear Lake Scuba Park and the Quality Inn was a great place to stay. Room was clean. The front desk was polite and efficient. I would be happy to stay there again.More</t>
   </si>
   <si>
+    <t>mikestrain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r492191669-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>A friend recommended this place for our quick trip to Terrell. I highly recommend it. Nice, clean rooms. (Get the king bed room. It has a big jacuzzi tub that is in the room with the bed.) Bathroom was clean and shower was hot, with good pressure. Hotel is located well, about three minutes from the outlet mall. I was concerned when I saw the low prices. Wondered if there may be some issue. Only issue I saw was that the pool was closed, which didn't matter to me. Really good stay for us. More</t>
   </si>
   <si>
+    <t>Kayla N Gerard W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r484359539-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>This was just a wonderful place to stay after driving across country from Seattle, the staff was great!! Spent about a hour in the in room hot tub and my body felt like jello, the bed was super comfortable. Did not want to leave. Woke up at for breakfast and to pack up to go. And what do you know fell back to sleep when my head hit the soft pillows. This is a must do stop from being on the road. I even had to pull. Back the blankets to see what type of mattress I was sleeping on !!! Love this place well worth the money!!! More</t>
   </si>
   <si>
+    <t>Anne M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r480038370-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Five stars for Ashtyn at the front desk,  She went above and beyond to make sure we were happy with our accommodations.  She was very conscientious in making sure that her customers were happy.  There was some people at the hotel next door that were revering their tuck engines and just being a nuisance.  They did stop but she made it her business that it didn't interfere with the people in her hotel. Ashtyn was on the younger side but knew how to handle herself above her years.More</t>
   </si>
   <si>
+    <t>TheLightGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r435066115-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>This was once a nice, clean place, with a good breakfast. Not anymore! The employees are very helpful and nice. Everything else is going down. Bathroom was filthy and even some towels were soiled. We have stayed here one or two weekends a year for 12 years. Not anymore!More</t>
   </si>
   <si>
+    <t>HERMAN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r434678341-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Staying here for First Monday Trade Days in Canton, TX.  On arrival via a gravel and broken pavement road, the entrance, the lobby, the stairs and the hallways were not clean.  However the room was clean, but dated.  There is no elevator to the second floor, only a 20 step winding staircase.  The pool and hot tub were closed.  The room we were assigned had not been made up from the last guests.  A different room was then assigned.  Stay here only if you have to.  More</t>
   </si>
   <si>
+    <t>TallTexWally</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r432857195-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Qualtiy Inn is located on the north side of I - 20, at the Highway 34 exit.  The Terrell Factory Outlet Mall is just to the south, across the interstate highway.  There is a large QuikTrip Service Station nearby.  When going north on Highway 34 you need to turn left on Mira Place to reach the motel.  The small street is right beside Schlotzsky's Deli.  I found Mira Place to be one of the bumpiest small streets in Texas.  It definitely needs to be repaved.  There are just two motels at the end of the street.  One is Motel 6, on your left, and Quality Inn, on your right.  I've stayed at both motels, and Qualtiy Inn is superior to Motel 6, but is more expensive.  It is pretty close to I - 20, so if you are a light sleeper, you may hear the sound of trucks passing by during the night.  I didn't have this problem, since my room faced a large grassy field to the north.  With all that being said, I found Quality Inn in Terrell to be your basic motel.  Nothing fancy.  A place to spend the night, and then head down the highway the next morning.More</t>
   </si>
   <si>
+    <t>kf1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r392897994-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Stayed here on a long weekend trip with friends.  Beds were very comfortable, and room was clean.  The room did have a "smoky" smell to it, and it was supposed to be a non-smoking room.  I would stay here again if I'm ever back in town.More</t>
   </si>
   <si>
+    <t>Kevinfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r388495685-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Stayed here for work in the area. Booked two rooms. Didn't have any bad experiences. The hotel is old and dated but it will do in a tight spot. Wouldn't go back unless I had no other choice. Would prefer to pay the extra money and stay at the comfort inn or Hampton.More</t>
   </si>
   <si>
+    <t>hungry23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r369788140-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>Rooms were clean, beds were comfortable, staff was helpful. Older property could use a face lift but the place was clean and that means a lot. I have  stayed in nicer rooms for the same price but I have also stayed in worse rooms. All in all its just a place to sleep nothing really outstanding.More</t>
   </si>
   <si>
+    <t>Houstonian1977</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r358168028-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Very run down hotel, staff knew only the basics of customer service.  When I requested sheets and blankets for the sofa bed, I was given one sheet and one unfolded/disorganized bed cover.  I had to ask for pillows and a second blanket.  The bed cover had a cigarette hole in it.  The hotel lobby smelled like cigarette.More</t>
   </si>
   <si>
+    <t>Andrea W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r347948731-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -531,6 +573,9 @@
     <t>No elevator in the hotel would be the biggest negative.  Room was clean and bed was comfortable.  We were told it would have a hot breakfast, but all that was offered hot was waffles.  The orange juice was sour and the apple juice tasted like water.  Ended up eating yogurt.  All the rooms said "Non Smoking" but someone was breaking the rules because the second floor smelled awful.  For the price though, it was a nice hotel.More</t>
   </si>
   <si>
+    <t>dash00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r328729049-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -561,6 +606,9 @@
     <t>My husband and I spent one night here on our travel through Texas.  We had a king suite.  The room was clean, the bed was comfortable, and the sofa was comfortable.  The service was good and the fridge in our room was cold.  This is  a two story hotel with no elevator.  I have a bad knee so if I were to stay more than one night that would be a problem.  The decor was dated but it wasn't shabby.  We could hear the road noise.  There are a number of restaurants close by.  They have the typical fee breakfast.  I got a good rate so I suppose I would stay there again because of the rate and the cleanliness.  The wifi was practically non exitant which was totally annoying.  I had to change some of my upcoming travel plans but I had to do it by phoneMore</t>
   </si>
   <si>
+    <t>Gallen999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r291906629-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -588,6 +636,9 @@
     <t>Just 30 minutes from Dallas on the Interstate 20. Room is spacious and great value for money. King bed in the room. Breakfast room large but they use paper plates. Ask for a room on opposite side from the interstate. Fast free wifi available. Staff helpful especially Victoria on the front desk. Across the interstate from the Outlet Centre.More</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r282873298-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -615,6 +666,9 @@
     <t>The room was fine but when we arrived my husband wasn't feeling well and just wanted to relax. So the man at desk gave us a room but said "it SHOULD be clean". So we walk to far end of hotel, go inside and of course it's not clean! So I have to go back, wait to find another room, and then haul our stuff up steps cause there is no elevator. People in room next to us had a dog that would bark whenever it heard a noise too. Just unpleasantMore</t>
   </si>
   <si>
+    <t>jdkittrell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r281668859-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -642,6 +696,9 @@
     <t>We wanted to get past Dallas heading east on I-20, and Terrell was a perfect place to stop for the night. We got there late, but service was good, and the rooms were a decent. We even had room for a roll-away bed. The only letdown was that there was not a fridge in our room. There HAD been one there recently because you could see the dust around where it HAD sat. By the way, it is across the overpass from Tanger Outlets although we did not have time to shop there.More</t>
   </si>
   <si>
+    <t>William T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242964786-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -666,6 +723,9 @@
     <t>This comfort inn was a very nice hotel.  Staff was very friendly.  The rooms were very clean.  The breakfast was as good as you can get at any comfort inn.  If you plan on stay a night or more in Terrell, Tx you will enjoy your stay at this comfort inn.More</t>
   </si>
   <si>
+    <t>chandana_silva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242637412-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -684,6 +744,9 @@
     <t>I was looking for a comfortable sleep after driving from Houston and  was surprised with a Jacuzzi room in the first floor.It's an old building. I enjoyed reading the papers in the Jacuzzi. Later I realized it was not 100% clean. The bed was comfortable and helped me to decompress. The Ac was working fine. The Bathroom was clean.The continental breakfast was ok.More</t>
   </si>
   <si>
+    <t>newdesertred</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242557523-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -699,6 +762,9 @@
     <t>We've stayed here twice before, and were very pleased with the hotel.  It's on the way out of the Dallas area (if you're heading east), was well-maintained, and very economical.  But this time we noted some deficiencies in the cleanliness of the room. The rug needed vacuuming, there was food left in the refrigerator, and we had the sense that the room had not been given the attention that was so obvious during our previous visits.  But the upside was the response by the manager the next day as we checked out.  He was very solicitous and assured us the rooms would be attended to; he also credited our account with Choice Hotel points to make up for the situation.  So, we're willing to try this hotel again.More</t>
   </si>
   <si>
+    <t>snowflakesovrtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r231108676-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -726,6 +792,9 @@
     <t>The first room we were given had an a/c that was not working properly (no cold air blowing after 3 hours) in room 110.  The clerk was more than happy to relocate us and we greatly appreciated it.  In agreement with another reviewer, this is an older property that has had a facelift. There is no elevator so be prepared to haul your luggage up a beautiful, curved staircase, Also, the front entrance doors are NOT automatic sliding doors- be prepared to have a spare hand ready. The mattresses have padded covers on them for added comfort, but lack the comfort of pillow-top mattresses.  Parking is in the front of the building, there is only a dirt lot behind the hotel.  However, Sonic, Waffle House, Starbucks and a few convenience stores are located nearby.  Overall, this is an acceptable hotel for a one-night stay.More</t>
   </si>
   <si>
+    <t>cuzn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r228288864-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -750,6 +819,9 @@
     <t>This Comfort Inn an older property and could use a facelift.  The room was fairly clean and the A/C worked OK.The staff was friendly and courteous.  The breakfast was very basic and limited quantities were available. Wi-Fi was OK.The window glass was cracked and the window was screwed shut so it could not be opened.More</t>
   </si>
   <si>
+    <t>BeckyRN1979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r220265783-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -804,6 +876,9 @@
     <t>I've stayed here a couple of times over the last year, and have enjoyed my stay both times.  It's a well-kept, secure, clean and welcoming place.  The staff are very responsive and I'd recommend it highly.  The only drawback is that there is no elevator in this two-story building.  If you're on the second story, and depending on how much luggage you have, it may take a couple of trips up and down stairs to bring it all in.  But the other positives easily outweigh this one negative.More</t>
   </si>
   <si>
+    <t>TravelGrandma10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r188605234-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -828,6 +903,9 @@
     <t>We stopped at this hotel when traveling on I-20 because of the great reviews and we were not disappointed.  The room was roomy and nicely furnished and the bathroom was beautifully appointed.  Everything was spotless also.  This was a great hotel room especially considering the price!  I highly recommend this place.More</t>
   </si>
   <si>
+    <t>Mark-Rachel M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r186464494-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -855,6 +933,9 @@
     <t>I stayed for a weekend in November for a diving event at Clear Springs Scuba Park. We've been impressed with other Choice offerings, which was why I picked this one. I was very impressed with the size and cleanliness of the room. It was a huge (at this price point) suite, with king bed on one side and desk/sitting area on the other. A large flat-screen, fridge, and microwave were included. The front desk staff was helpful and friendly. When I needed an extension cord, it took about 2 minutes and a call to the front. Check-in and check-out were both quick and painless. If I had one minor complaint (which is why I gave four stars instead of five), it would be the breakfast. It certainly wasn't 'bad.' There was cereal, bread, milk, juice, coffee, waffles, sausage, and eggs. I was just a little disappointed that the eggs and sausage were from frozen patties, and no other hot items such as potatoes or bacon. Other than that, I was very pleased with everything else about the hotel. Cleanliness is of the utmost importance to me in a hotel, and Comfort didn't disappoint.More</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181743033-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -882,6 +963,9 @@
     <t>Stayed here Friday night, had a very clean room on 1st floor. Bed were comfortable(pillows not so much). Nice TV, refrigerator and microwave in room. Front desk employee was nice. Breakfast was good. Good location to everything.More</t>
   </si>
   <si>
+    <t>Opecanty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181066774-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -909,6 +993,9 @@
     <t>Nothing special and could have been cleaner. The jacuzzi didn't work but the desk manager was super nice. He needs to find a job at another hotel.  The pool area was very dirty. There wasn't an elevator and our room was on the far end. It is in a great location for me and I have stayed there twice.More</t>
   </si>
   <si>
+    <t>karl j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r180036079-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1023,9 @@
     <t>the staff was very helpful trying to resolve my issue.  clean room &amp; worth the extra for security compared to low price next door.  i was also given local maps &amp; good local suggestions by the staff (friendly &amp; chatty).  decent food choices nearby.  definitly will stop if i'm in that area of texas again.More</t>
   </si>
   <si>
+    <t>Shannonlage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r162321900-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1050,9 @@
     <t>We were really pleased with our stay. The location was great . The rooms were clean and quiet.The staff were friendly and the pool and hot tub perfect. The best part of this stay happened after we left though. We were nearly 21/2 hours away when the hotel called us and asked if we left a bag. We were so disappointed when we realized we left our bag with the IPad and some very expensive medications. They sent us a box COD and it arrived 2 days later. We did not expect what we found! Carefully wrapped were all of our items nothing missing!!! I couldn't believe it!! Thank you Hotel staff!!! We will always stay there when in your area!!! I am so thankful for your honesty. What a wonderful Hotel.More</t>
   </si>
   <si>
+    <t>Tom C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r159627522-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1080,9 @@
     <t>I was one of a large group of car club members who stayed at the hotel for 2 nights.  The service and welcome for our club was excellent.  I particularly want to thank the General Manager, Mack, for a very nice gesture:  I left two personal keys on a key chain in the room when I left to return to my home city.  I talked to Mack on the phone and he personally went to the post office to send the keys back to me in a padded envelope, all at no charge.  This is the kind of thoughtful service which brings customers back.More</t>
   </si>
   <si>
+    <t>PickyTravelGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r158630701-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1107,9 @@
     <t>If this is the best Terrell has to offer under $100, then the other properties must be pretty sad. Data:Locally-owned franchisee, not a corporate propertyPaid $71.99 on Tuesday night in late April; booked directly through Choice HotelsAverage wifi speed of 1.2Mbps down (hotel pretty empty)Google has the location wrong...take the first street (Mira Pl.) left after freeway off-ramp/on-ramp, not the 2nd one that Google recommendsDrive slowly on Mira Pl. as you drive in! Road in very bad disrepair and there is one big collapse under the pavement that your car will drag on if you're moving over 15 mphPros:Friendly front counter staffFlat-screen TVFridge and microwave in roomFirm bedsCons: As other guests said, seems old and tired and dirtySeemed to take a long time to get checked in. Not really staff's fault, though. Next to freeway: Request room on other side. Hottub: Hmmm, soak outdoors next to the freeway noise. Pass. Black hair in my old plastic showerPee stain on the underside of old toilet seatSpillage/dirt on stairs (no elevator)After SO MANY complaints about the cleanliness, you'd think they'd fire the housekeeping staff, but maybe they are family and therefore not fire-able. Solution: Show the staff these reviews!More</t>
   </si>
   <si>
+    <t>FRQNT F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r156070497-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1137,9 @@
     <t>Hotel faces the Highway so request a back room if road noise is an issue. Well appointed rooms with  Flat screen, desk, micro, and refrig. Funky adjustable showerhead, but I got used to it. Typical breakfast nook with sausage, waffles, and eggs in addition to the typical cereal and sweet rolls. Hotel leaves fruit out 24x7 so a snack is always available. The HBO channel 6 did not work and when I advised the front desk they seemed surprised.More</t>
   </si>
   <si>
+    <t>KKV14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r154809784-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1167,9 @@
     <t>I stayed here, along with several colleagues for an extended business trip. The staff, especially the GM, Mack, was very accommodating and willing to go the extra mile every time we needed them. Rooms were clean, quiet and spacious. Thanks again for everything!More</t>
   </si>
   <si>
+    <t>Patty L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r153001695-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1197,9 @@
     <t>Good service at check-in (3 am), and the room was clean and comfortable. We slept in too late for breakfast. The non-smoking room was apparently truly non-smoking (smelled fine, and I am very sensitive to the smell of smoke). However, there was a faint smell of smoke in the hallway in the morning. However, it did not move into the room. Overall, good stay.More</t>
   </si>
   <si>
+    <t>CWG_77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r145144969-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1224,9 @@
     <t>Decent price. The hotel had a comfortable room with good tv and Internet. There is plenty to eat in driving and walking distance. The street leading into the hotel has some potholes that could swallow a small car. That's not their fault though its just a warning. It is a little dirty but I have stayed in places that charge 3 times the amount here and were worse. More</t>
   </si>
   <si>
+    <t>goingforitalways</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r143684469-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1251,9 @@
     <t>For a couple of really weary travellers, we were truly pleased and grateful for our stay at the Comfort Inn.  Clean, quiet and a beautiful, spacious room fit our needs to a tee.  Will definitely stay there when we go back through.  There were six or so hotels to stay at and we're so glad we chose the right one! More</t>
   </si>
   <si>
+    <t>Emmy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r140373342-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1276,9 @@
   </si>
   <si>
     <t>I may just be cynical because I spent an hour trying to find the 'main road' (read La Quinta if you need the main road story) but this was not the greatest place we were on the second floor there was no elevator so we had to haul the bags up the stairs.  The water tasted sulphuric and I could barely gag any down. Otherwise it was great not the cleanest and by far worst water ever actually woke up early to go buy a bottle from Starbucks.More</t>
+  </si>
+  <si>
+    <t>Glenmere7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r130309174-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1197,6 +1314,9 @@
 Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee...The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.Pros to Comfort Inn Terrell:  Accommodating and friendly front desk staff.  Easy check-in and check-out.Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee table, well-equipped work station, fridge and microwave. The bathroom is also a decent size and has a coffeemaker. Consistently strong wi-fi connection at no extra charge.Bed was very comfortable.Little or no interior noise transfer (though when we stayed here, the motel was not at full occupancy).Breakfast is included and offers both hot and cold items. It is served from 6:00 to 10:00 a.m. in a small breakfast area with three tables.Complimentary copies of The Wall Street Journal are available in the lobby.The fitness center, also open at 6:00 a.m., is adequate for a modest workout (very small, though, with one treadmill, one exercise bike, and freeweights.)Computer and printer available in the lobby for guest use (no  business center).Wide range of TV viewing options, including HBO and other premium channels.Cons:Some things are on the cheap side, such as bathroom towels that have seen better days, flimsy individually wrapped plastic drinking cups that leak, and an inexpensive plastic tub-shower combination in the bath . (On the other hand, the multiple-spray shower head is nice.)Housekeeping has a few gaps. The bathroom was not outfitted with two complete sets of towels and wash cloths, so we had to ask for the missing items.Tire whine from nearby I-20 can be heard in the room. However, it was not bad enough to keep us awake, and with the air conditioning running it is not severe.Possibly because of some sort of corporate incest, in order to log onto the internet at Comfort Inn, you must set Google as your homepage.  Of course, this can be undone later, but it irked me.The outdoor hot tub and swimming pool are wedged between the parking lot and the lobby. After a swim, one must drip directly into the lobby from the pool.  Awkward.More</t>
   </si>
   <si>
+    <t>Larry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r127495006-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1221,6 +1341,9 @@
     <t>I stayed 5 days at the Comfort Inn in Terrell, Texas.  The service provided by the manager and his staff was always excellent.   The room was always clean and comfortable.  The breakfast was outstanding - plenty of good selections.  I will be staying again for sure.More</t>
   </si>
   <si>
+    <t>DSergi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r126363266-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1368,9 @@
     <t>We had a week long trial in Kaufman county and our team stated here. The front desk service was great and accommodated our every need. The rooms were a bit worn but well kept and maintained. I'd stay here again. More</t>
   </si>
   <si>
+    <t>M W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r121812995-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1398,9 @@
     <t>Traveling with my older parents, we were very tired and looking for a good place to stay at a decent price.  Loved the Comfort Inn in Terrell.  Remodeled recently, new tv's, great looking pool and hot tub, beds comfortable, friendly helpful service.  Thanks!More</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119833501-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1428,9 @@
     <t>Mr. Mack Patel:I had the pleasure of staying in your hotel, Comfort Inn at Terrell, Texas, on a return trip from New Mexico to Georgia.  The young lady who waited on me, Ms. Monalisa, did an outstanding job with our accommodations and other needs.  I travel a considerable amount with my job and it is always a pleasure to stay in a clean and safe hotel such as yours in Terrell, Texas.  What is an additional pleasure and surprise is when you encounter such an outstanding employee as Ms. Monalisa who is truly customer service orientated and goes out of her way to ensure each guest needs are addressed.  Please convey my sincere thanks to Ms. Monalisa for the outstanding service she provided during my stay.  This young lady is a true asset to your organization.Thank You,Michael J.BakerMore</t>
   </si>
   <si>
+    <t>gjhasselman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119692203-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1455,9 @@
     <t>Spent last night here on the way home from Dallas--didn't get there until midnight but was greeted by very pleasant clerk--found a great bed, good shower and average bed PLUS a great priceMore</t>
   </si>
   <si>
+    <t>Adlai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r110013772-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +1476,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>jms1104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r96286971-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1497,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>HaveRifleWillTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r94491110-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1519,9 @@
   </si>
   <si>
     <t>Have stayed at this hotel twice, once in Sept 2010, and once in Nov 2010.  The first stay was with my wife and we got a free upgrade to a jacuzzi room w/ complimentary bottle of cheap-o champagne.    Second stay was for work with a colleague.Rooms are average, but the beds are comfortable.  There is no elevator so lugging stuff up the stairs is a bit of a pain.  It is priced nicely for the area.  The breakfast in the morning sucks; your typical crappy "continental" breakfast of waffle maker, fruit, cold cereal and juice machine.Hotel staff were pleasant.  Overall for the value, it is a good hotel; would stay there again.More</t>
+  </si>
+  <si>
+    <t>cch1504</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r52010362-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1409,6 +1553,9 @@
 If the charges don't dissapear by the 30th then I'm stuck with filing a...This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.If the charges don't dissapear by the 30th then I'm stuck with filing a dispute with my bank and I'm out the money in the meantime. What an inconvenience!The hotel was nice, but not $325, $160 or worth any of this trouble. If you pay with cash, I'm sure you'll be happy and your money will be safe! Or stay at one of the many other hotels until this place learns to take better care of their customers when there is a problem MR. PATEL!More</t>
   </si>
   <si>
+    <t>jbooth2099</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r40047907-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1572,9 @@
   </si>
   <si>
     <t>September 2009</t>
+  </si>
+  <si>
+    <t>LisaAustin_Texas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r28145903-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1950,43 +2100,47 @@
       <c r="A2" t="n">
         <v>38978</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174044</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1998,56 +2152,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38978</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174045</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2059,56 +2217,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38978</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174046</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2126,56 +2288,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38978</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174047</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2187,56 +2353,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38978</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174048</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2248,56 +2418,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38978</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2315,56 +2489,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38978</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174049</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2376,47 +2554,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38978</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>83974</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -2433,56 +2615,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" t="s">
         <v>116</v>
       </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38978</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>174050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2500,56 +2686,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
         <v>116</v>
       </c>
-      <c r="X10" t="s">
-        <v>109</v>
-      </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38978</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174051</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2567,56 +2757,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38978</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174052</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2628,56 +2822,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38978</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174053</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2695,56 +2893,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38978</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174054</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2760,56 +2962,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38978</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>30449</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2827,56 +3033,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38978</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>63571</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2894,56 +3104,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="X16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38978</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>32293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O17" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2961,56 +3175,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="X17" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="Y17" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38978</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>508</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O18" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3022,56 +3240,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38978</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>16550</v>
+      </c>
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="J19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3089,56 +3311,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="X19" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38978</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>6053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3156,56 +3382,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X20" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38978</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>10167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3221,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38978</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174055</v>
+      </c>
+      <c r="C22" t="s">
+        <v>242</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3288,56 +3522,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38978</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174056</v>
+      </c>
+      <c r="C23" t="s">
+        <v>248</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3355,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="X23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Y23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38978</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174057</v>
+      </c>
+      <c r="C24" t="s">
+        <v>258</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="J24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="K24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O24" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -3420,56 +3662,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="X24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="Y24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38978</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174058</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3487,56 +3733,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="X25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38978</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174054</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3558,56 +3808,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38978</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>16955</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3629,56 +3883,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="X27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38978</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>56717</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="O28" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3700,56 +3958,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="X28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="Y28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38978</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>364</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="O29" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3771,56 +4033,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38978</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125806</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O30" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3842,56 +4108,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="X30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Y30" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38978</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174059</v>
+      </c>
+      <c r="C31" t="s">
+        <v>325</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="J31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="O31" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3913,47 +4183,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="X31" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="Y31" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38978</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174060</v>
+      </c>
+      <c r="C32" t="s">
+        <v>335</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="J32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
@@ -3980,56 +4254,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38978</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>5561</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4051,56 +4329,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="X33" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="Y33" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38978</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174061</v>
+      </c>
+      <c r="C34" t="s">
+        <v>354</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="K34" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="L34" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4122,56 +4404,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38978</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174062</v>
+      </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="K35" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4193,56 +4479,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="X35" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Y35" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38978</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174063</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4264,56 +4554,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="X36" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38978</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>23772</v>
+      </c>
+      <c r="C37" t="s">
+        <v>383</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="J37" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="L37" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4335,47 +4629,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="X37" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38978</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174064</v>
+      </c>
+      <c r="C38" t="s">
+        <v>393</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="K38" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -4402,47 +4700,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="X38" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="Y38" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38978</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174065</v>
+      </c>
+      <c r="C39" t="s">
+        <v>402</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="J39" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="K39" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="L39" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -4469,47 +4771,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="X39" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="Y39" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38978</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174066</v>
+      </c>
+      <c r="C40" t="s">
+        <v>411</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="J40" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="K40" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="L40" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
@@ -4536,56 +4842,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="X40" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="Y40" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38978</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174067</v>
+      </c>
+      <c r="C41" t="s">
+        <v>420</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="J41" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="L41" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="O41" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4607,56 +4917,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="X41" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="Y41" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38978</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>35575</v>
+      </c>
+      <c r="C42" t="s">
+        <v>430</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="J42" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="K42" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="L42" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4678,47 +4992,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="X42" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="Y42" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38978</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174068</v>
+      </c>
+      <c r="C43" t="s">
+        <v>439</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="J43" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="K43" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="L43" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4745,56 +5063,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="X43" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="Y43" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38978</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>16758</v>
+      </c>
+      <c r="C44" t="s">
+        <v>448</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="J44" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="K44" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="L44" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4816,56 +5138,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="X44" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Y44" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38978</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>967</v>
+      </c>
+      <c r="C45" t="s">
+        <v>458</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="J45" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="K45" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="L45" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="O45" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4887,56 +5213,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="X45" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="Y45" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38978</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174069</v>
+      </c>
+      <c r="C46" t="s">
+        <v>468</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="J46" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="K46" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="L46" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4958,56 +5288,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="X46" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="Y46" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38978</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174070</v>
+      </c>
+      <c r="C47" t="s">
+        <v>477</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="J47" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="K47" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="L47" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="O47" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5031,50 +5365,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38978</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174071</v>
+      </c>
+      <c r="C48" t="s">
+        <v>484</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="J48" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="K48" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="L48" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="O48" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5098,50 +5436,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38978</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174072</v>
+      </c>
+      <c r="C49" t="s">
+        <v>491</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>494</v>
       </c>
       <c r="K49" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="L49" t="s">
-        <v>449</v>
+        <v>496</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>497</v>
       </c>
       <c r="O49" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5165,50 +5507,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38978</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174073</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="J50" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="K50" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="L50" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>457</v>
+        <v>505</v>
       </c>
       <c r="O50" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5232,50 +5578,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>458</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38978</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>78991</v>
+      </c>
+      <c r="C51" t="s">
+        <v>507</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="J51" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="K51" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="L51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="O51" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5299,50 +5649,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38978</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174074</v>
+      </c>
+      <c r="C52" t="s">
+        <v>514</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="J52" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="K52" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="L52" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="O52" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5366,7 +5720,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_621.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,198 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Tarey T</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r603614451-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>56759</t>
+  </si>
+  <si>
+    <t>99590</t>
+  </si>
+  <si>
+    <t>603614451</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>very helpful, pleasant staff in a good hotel.</t>
+  </si>
+  <si>
+    <t>i frequently stay at the quality inn brand hotels as they are almost always pet friendly. this hotel was great with my dog. breakfast was excellent, and it is located right off the highway. we did have a small hic cup and the manager couldn't have been more accommodating in clearing things up - it wasn't serious but he went the distance for me. re clean and fresh.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>i frequently stay at the quality inn brand hotels as they are almost always pet friendly. this hotel was great with my dog. breakfast was excellent, and it is located right off the highway. we did have a small hic cup and the manager couldn't have been more accommodating in clearing things up - it wasn't serious but he went the distance for me. re clean and fresh.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r601874520-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>601874520</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Not great, not terrible.</t>
+  </si>
+  <si>
+    <t>Had a double queen room. Bathroom was ample, but there was no separate dressing or sink area. So if someone needed the toilet or shower, nobody else could be getting ready at the sink/mirror/outlets. The breakfast was not good at all. It wasn't even the powdered scrambled eggs mid-to-lower-end hotels have, it was those disc eggs. The juice was terrible. If you're not going to have good eggs or juice, then don't have them at all. Instead, have better baked goods (they had pre-packaged danishes) or something else to choose from. Breakfast really doesn't cost hotels that much to do correctly. We also used the laundry, which consisted of one (OLD &amp; SMALL) washer and dryer. There was no change machine, so you either had to have correct change or walk all the way to the other end of the hotel to get change from the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Had a double queen room. Bathroom was ample, but there was no separate dressing or sink area. So if someone needed the toilet or shower, nobody else could be getting ready at the sink/mirror/outlets. The breakfast was not good at all. It wasn't even the powdered scrambled eggs mid-to-lower-end hotels have, it was those disc eggs. The juice was terrible. If you're not going to have good eggs or juice, then don't have them at all. Instead, have better baked goods (they had pre-packaged danishes) or something else to choose from. Breakfast really doesn't cost hotels that much to do correctly. We also used the laundry, which consisted of one (OLD &amp; SMALL) washer and dryer. There was no change machine, so you either had to have correct change or walk all the way to the other end of the hotel to get change from the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r598299707-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>598299707</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Overall amazing stay</t>
+  </si>
+  <si>
+    <t>Awesome hotel great breakfast, clean, Ashtyn made check in a breeze super friendly and made us comfortable during the day. Kathy on the other hand seemed lazy making my daughter carry pool towels to fill the table when they were out and refusing to turn the hot tub on. She also spent a lot of time facetiming and being preoccupied with other things rather then on her job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Awesome hotel great breakfast, clean, Ashtyn made check in a breeze super friendly and made us comfortable during the day. Kathy on the other hand seemed lazy making my daughter carry pool towels to fill the table when they were out and refusing to turn the hot tub on. She also spent a lot of time facetiming and being preoccupied with other things rather then on her job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r596169518-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>596169518</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Outstanding!</t>
+  </si>
+  <si>
+    <t>I have stayed in about 10 different Quality Inns this year, and this one was by far the best! First excellence was staff. The hotel appears to be family owned and all were so nice, cordial and always smiling. We felt very welcomed. Next is the room. I loved the layout! The sitting area has an open archway that separates it from the bed. Really gives it a better look than an open room. I absolutely feel in love with the shower! Water pressure was great, and the shower head gave enough water through it to surprise me!We didn't get to try the breakfast due to leaving early, so I can't comment on that, but I would give this place to consideration  when I return to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in about 10 different Quality Inns this year, and this one was by far the best! First excellence was staff. The hotel appears to be family owned and all were so nice, cordial and always smiling. We felt very welcomed. Next is the room. I loved the layout! The sitting area has an open archway that separates it from the bed. Really gives it a better look than an open room. I absolutely feel in love with the shower! Water pressure was great, and the shower head gave enough water through it to surprise me!We didn't get to try the breakfast due to leaving early, so I can't comment on that, but I would give this place to consideration  when I return to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r593637912-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>593637912</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Good Overnight Stay</t>
+  </si>
+  <si>
+    <t>If you can not haul your luggage to the second floor, make sure you reserve a ground floor as there is no elevator. The room was clean and comfortable. Check in went fine and the staff was helpful and friendly. The place could use some maintenance. In particular, the fitness room equipment had some frayed cables, loose arm on tread and needs a good cleaning.  Door did not close properly and AC was a little slow to start. Front desk said she would report this to maintenance. When we were packing car to leave, there was a small car hiding behind ours where two men were doing something in the back seat. We reported this to front desk who hailed the maintenance man to investigate. By the time I went back, the two men hopped out of back seat and quickly drove off. Not sure what it was, but definitely weird.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>If you can not haul your luggage to the second floor, make sure you reserve a ground floor as there is no elevator. The room was clean and comfortable. Check in went fine and the staff was helpful and friendly. The place could use some maintenance. In particular, the fitness room equipment had some frayed cables, loose arm on tread and needs a good cleaning.  Door did not close properly and AC was a little slow to start. Front desk said she would report this to maintenance. When we were packing car to leave, there was a small car hiding behind ours where two men were doing something in the back seat. We reported this to front desk who hailed the maintenance man to investigate. By the time I went back, the two men hopped out of back seat and quickly drove off. Not sure what it was, but definitely weird.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r583186320-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>583186320</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Clean, nice pool, good breakfast, friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for four days.  We were unfamiliar with the area before booking.  What a great choice we made! This hotel is right off the major highway, within walking and driving distance to many restaurants, Tangier Outlets, movie theater and gas station. Staff were all very friendly. Rooms were clean, supplies replenished. Each room has a refrigerator and TV's have great selection of cable channels.  Beds were comfy.  Breakfast is included and we were delighted to see a Texas shaped Belgian waffle maker!  We woke up late twice during our stay and rushed with only a few minutes to grab breakfast. Much to our surprise, staff allowed us to enjoy our meal at our leisure.  Prices are reasonable too.  Great place to stay when away from home!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for four days.  We were unfamiliar with the area before booking.  What a great choice we made! This hotel is right off the major highway, within walking and driving distance to many restaurants, Tangier Outlets, movie theater and gas station. Staff were all very friendly. Rooms were clean, supplies replenished. Each room has a refrigerator and TV's have great selection of cable channels.  Beds were comfy.  Breakfast is included and we were delighted to see a Texas shaped Belgian waffle maker!  We woke up late twice during our stay and rushed with only a few minutes to grab breakfast. Much to our surprise, staff allowed us to enjoy our meal at our leisure.  Prices are reasonable too.  Great place to stay when away from home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r571915943-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>571915943</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Two great nights!</t>
+  </si>
+  <si>
+    <t>We came here for a dance competition which was located about 4 miles away. Hotel was perfect for us! Rooms were clean, staff was friendly and this place met our expectations, including being at a great location. We enjoyed the free included breakfast that goes until 9am.  Three different kinds of cereal, a waffle maker and hot breakfast. First day was eggs, bacon and sausage. The second day was scrambled egg squares with biscuits and gravy. They also have chocolate, coffee, juice, bagels and sweet rolls. We will be back next year here again for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>We came here for a dance competition which was located about 4 miles away. Hotel was perfect for us! Rooms were clean, staff was friendly and this place met our expectations, including being at a great location. We enjoyed the free included breakfast that goes until 9am.  Three different kinds of cereal, a waffle maker and hot breakfast. First day was eggs, bacon and sausage. The second day was scrambled egg squares with biscuits and gravy. They also have chocolate, coffee, juice, bagels and sweet rolls. We will be back next year here again for sure!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r538379906-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
-    <t>56759</t>
-  </si>
-  <si>
-    <t>99590</t>
-  </si>
-  <si>
     <t>538379906</t>
   </si>
   <si>
@@ -177,9 +354,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded November 6, 2017</t>
   </si>
   <si>
@@ -189,9 +363,6 @@
     <t>Our yearly family trip to Canton is made easier with the great staff at the Quality Inn. Betty made check in a breeze and I appreciated the phone call checking to make sure about our arrival time. Options for breakfast were varied and included yogurts, waffles, bacon, and fresh fruits. More</t>
   </si>
   <si>
-    <t>Nicolelynette</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r534888282-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -210,9 +381,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 23, 2017</t>
   </si>
   <si>
@@ -222,9 +390,6 @@
     <t>I was a little afraid to stay here because I’ve been to other quality inns that weren’t great but this one was awesome! Everything was clean and the beds were comfy! It had a really good breakfast too! More</t>
   </si>
   <si>
-    <t>Gengle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r529135935-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -252,7 +417,58 @@
     <t>I booked only one night and the hotel was fine. I was finishing my scuba certification at Clear Lake Scuba Park and the Quality Inn was a great place to stay. Room was clean. The front desk was polite and efficient. I would be happy to stay there again.More</t>
   </si>
   <si>
-    <t>mikestrain</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r496962308-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>496962308</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable.  Breakfast was also good with a cute Texas Waffle, which was unusual for us.  They were out of orange juice, which was a bummer for the little boy with us and me also.  We had to climb stairs to get to our room, which is really hard with luggage.  Other than that it was a good place for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable.  Breakfast was also good with a cute Texas Waffle, which was unusual for us.  They were out of orange juice, which was a bummer for the little boy with us and me also.  We had to climb stairs to get to our room, which is really hard with luggage.  Other than that it was a good place for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r496292612-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>496292612</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>I will stay again</t>
+  </si>
+  <si>
+    <t>I booked 2 nights because I wasn't sure I would really like it after a few of the reviews.  I stay at Hampton and Holiday Inn express regularly and found room 115 to be as nice as I've had at other chains.  I hate rooms that are warm in the summer and at temps of 95-100 my room was PERFECTLY cool.  Ceiling fan was wonderful too!Check in was great.  DEBBIE at the front desk is a Jewel.  I extended my stay for 4 additional nights and will stay there again.  Parking is free and convenient.  Waffle House/Sonic steps away and other diners.  Breakfast is limited but normal for this chain.Small pool .. and plan earlier in the day if you want to catch a tan as the sun sets opposite the pool and you'll be in the shade.I left a couple of things in the hotel and they CALLED me and I was able to go back to pick up my items.I was in a king leisure room and it had a sofa, desk area.fridge and microwave.  Carpets was fresh and new.  Housekeeping did a GREAT job every day.Bed was wonderful.  Towels were not the big plush, but they were just fine.I have stayed at the other hotels but I will go back to Quality Inn AGAIN next time in Terrell.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>I booked 2 nights because I wasn't sure I would really like it after a few of the reviews.  I stay at Hampton and Holiday Inn express regularly and found room 115 to be as nice as I've had at other chains.  I hate rooms that are warm in the summer and at temps of 95-100 my room was PERFECTLY cool.  Ceiling fan was wonderful too!Check in was great.  DEBBIE at the front desk is a Jewel.  I extended my stay for 4 additional nights and will stay there again.  Parking is free and convenient.  Waffle House/Sonic steps away and other diners.  Breakfast is limited but normal for this chain.Small pool .. and plan earlier in the day if you want to catch a tan as the sun sets opposite the pool and you'll be in the shade.I left a couple of things in the hotel and they CALLED me and I was able to go back to pick up my items.I was in a king leisure room and it had a sofa, desk area.fridge and microwave.  Carpets was fresh and new.  Housekeeping did a GREAT job every day.Bed was wonderful.  Towels were not the big plush, but they were just fine.I have stayed at the other hotels but I will go back to Quality Inn AGAIN next time in Terrell.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r492191669-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -270,9 +486,6 @@
     <t>A friend recommended this place for our quick trip to Terrell. I highly recommend it. Nice, clean rooms. (Get the king bed room. It has a big jacuzzi tub that is in the room with the bed.) Bathroom was clean and shower was hot, with good pressure. Hotel is located well, about three minutes from the outlet mall. I was concerned when I saw the low prices. Wondered if there may be some issue. Only issue I saw was that the pool was closed, which didn't matter to me. Really good stay for us. MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded June 12, 2017</t>
   </si>
   <si>
@@ -282,37 +495,13 @@
     <t>A friend recommended this place for our quick trip to Terrell. I highly recommend it. Nice, clean rooms. (Get the king bed room. It has a big jacuzzi tub that is in the room with the bed.) Bathroom was clean and shower was hot, with good pressure. Hotel is located well, about three minutes from the outlet mall. I was concerned when I saw the low prices. Wondered if there may be some issue. Only issue I saw was that the pool was closed, which didn't matter to me. Really good stay for us. More</t>
   </si>
   <si>
-    <t>Kayla N Gerard W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r484359539-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
     <t>484359539</t>
   </si>
   <si>
-    <t>05/15/2017</t>
-  </si>
-  <si>
-    <t>Military Friendly... A must Stay !!</t>
-  </si>
-  <si>
-    <t>This was just a wonderful place to stay after driving across country from Seattle, the staff was great!! Spent about a hour in the in room hot tub and my body felt like jello, the bed was super comfortable. Did not want to leave. Woke up at for breakfast and to pack up to go. And what do you know fell back to sleep when my head hit the soft pillows. This is a must do stop from being on the road. I even had to pull. Back the blankets to see what type of mattress I was sleeping on !!! Love this place well worth the money!!! MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded May 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 18, 2017</t>
-  </si>
-  <si>
-    <t>This was just a wonderful place to stay after driving across country from Seattle, the staff was great!! Spent about a hour in the in room hot tub and my body felt like jello, the bed was super comfortable. Did not want to leave. Woke up at for breakfast and to pack up to go. And what do you know fell back to sleep when my head hit the soft pillows. This is a must do stop from being on the road. I even had to pull. Back the blankets to see what type of mattress I was sleeping on !!! Love this place well worth the money!!! More</t>
-  </si>
-  <si>
-    <t>Anne M</t>
+    <t>May 15, 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r480038370-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -342,7 +531,58 @@
     <t>Five stars for Ashtyn at the front desk,  She went above and beyond to make sure we were happy with our accommodations.  She was very conscientious in making sure that her customers were happy.  There was some people at the hotel next door that were revering their tuck engines and just being a nuisance.  They did stop but she made it her business that it didn't interfere with the people in her hotel. Ashtyn was on the younger side but knew how to handle herself above her years.More</t>
   </si>
   <si>
-    <t>TheLightGuy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r468082162-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>468082162</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Thanks for the help</t>
+  </si>
+  <si>
+    <t>When traveling through from New Mexico to Florida we often stop in Terrell because it gets us past Dallas traffic.  Several times we have stayed at the Quality Inn because it offers good rates and comfy room.  During our last trip we forgot my watch (a Xmas gift from the kids) and the staff found it for us and sent it to us at our Florida home without us having to prepay for anything.  That is extra special service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>When traveling through from New Mexico to Florida we often stop in Terrell because it gets us past Dallas traffic.  Several times we have stayed at the Quality Inn because it offers good rates and comfy room.  During our last trip we forgot my watch (a Xmas gift from the kids) and the staff found it for us and sent it to us at our Florida home without us having to prepay for anything.  That is extra special service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r465362178-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>465362178</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Weekend Get - A - way</t>
+  </si>
+  <si>
+    <t>My first time staying at this particular Quality Inn and it was great for the price.  The area is very congested but has easy access to I-20 and the Tanger's Outlet Mall.  The staff was very friendly and helpful.  Check in is at 3:00 but I arrived at 2:15pm and was able to check in without waiting.  There is no elevator for the second floor but there is only about 20 stairs to climb.  The room was freshly cleaned with no issues or concerns.  The bathroom had fresh clean towels.  I had the same staff to check me out and she was very friendly and expressed thanks for staying at this establishment.  I did not go down for the breakfast.   I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>My first time staying at this particular Quality Inn and it was great for the price.  The area is very congested but has easy access to I-20 and the Tanger's Outlet Mall.  The staff was very friendly and helpful.  Check in is at 3:00 but I arrived at 2:15pm and was able to check in without waiting.  There is no elevator for the second floor but there is only about 20 stairs to climb.  The room was freshly cleaned with no issues or concerns.  The bathroom had fresh clean towels.  I had the same staff to check me out and she was very friendly and expressed thanks for staying at this establishment.  I did not go down for the breakfast.   I will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r435066115-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -372,9 +612,6 @@
     <t>This was once a nice, clean place, with a good breakfast. Not anymore! The employees are very helpful and nice. Everything else is going down. Bathroom was filthy and even some towels were soiled. We have stayed here one or two weekends a year for 12 years. Not anymore!More</t>
   </si>
   <si>
-    <t>HERMAN C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r434678341-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -396,9 +633,6 @@
     <t>Staying here for First Monday Trade Days in Canton, TX.  On arrival via a gravel and broken pavement road, the entrance, the lobby, the stairs and the hallways were not clean.  However the room was clean, but dated.  There is no elevator to the second floor, only a 20 step winding staircase.  The pool and hot tub were closed.  The room we were assigned had not been made up from the last guests.  A different room was then assigned.  Stay here only if you have to.  More</t>
   </si>
   <si>
-    <t>TallTexWally</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r432857195-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -423,7 +657,55 @@
     <t>Qualtiy Inn is located on the north side of I - 20, at the Highway 34 exit.  The Terrell Factory Outlet Mall is just to the south, across the interstate highway.  There is a large QuikTrip Service Station nearby.  When going north on Highway 34 you need to turn left on Mira Place to reach the motel.  The small street is right beside Schlotzsky's Deli.  I found Mira Place to be one of the bumpiest small streets in Texas.  It definitely needs to be repaved.  There are just two motels at the end of the street.  One is Motel 6, on your left, and Quality Inn, on your right.  I've stayed at both motels, and Qualtiy Inn is superior to Motel 6, but is more expensive.  It is pretty close to I - 20, so if you are a light sleeper, you may hear the sound of trucks passing by during the night.  I didn't have this problem, since my room faced a large grassy field to the north.  With all that being said, I found Quality Inn in Terrell to be your basic motel.  Nothing fancy.  A place to spend the night, and then head down the highway the next morning.More</t>
   </si>
   <si>
-    <t>kf1995</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r422666480-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>422666480</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>The room was very clean, the staff was friendly and helpful. We left our phone charger and the next day they called to find out where to ship it. That was great service! Thanks for making our stay wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>The room was very clean, the staff was friendly and helpful. We left our phone charger and the next day they called to find out where to ship it. That was great service! Thanks for making our stay wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r410841141-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>410841141</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Fair hotel</t>
+  </si>
+  <si>
+    <t>This is your average hotel. The girl at the front desk was very nice. Hotel needs some updates but it's not bad. I had no complaints until the morning I checked out and found a live and a dead roach in the bathroom. The breakfast could have been better. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded August 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2016</t>
+  </si>
+  <si>
+    <t>This is your average hotel. The girl at the front desk was very nice. Hotel needs some updates but it's not bad. I had no complaints until the morning I checked out and found a live and a dead roach in the bathroom. The breakfast could have been better. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r392897994-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -453,9 +735,6 @@
     <t>Stayed here on a long weekend trip with friends.  Beds were very comfortable, and room was clean.  The room did have a "smoky" smell to it, and it was supposed to be a non-smoking room.  I would stay here again if I'm ever back in town.More</t>
   </si>
   <si>
-    <t>Kevinfamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r388495685-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -471,9 +750,6 @@
     <t>Stayed here for work in the area. Booked two rooms. Didn't have any bad experiences. The hotel is old and dated but it will do in a tight spot. Wouldn't go back unless I had no other choice. Would prefer to pay the extra money and stay at the comfort inn or Hampton.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded July 15, 2016</t>
   </si>
   <si>
@@ -483,9 +759,6 @@
     <t>Stayed here for work in the area. Booked two rooms. Didn't have any bad experiences. The hotel is old and dated but it will do in a tight spot. Wouldn't go back unless I had no other choice. Would prefer to pay the extra money and stay at the comfort inn or Hampton.More</t>
   </si>
   <si>
-    <t>hungry23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r369788140-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -513,7 +786,46 @@
     <t>Rooms were clean, beds were comfortable, staff was helpful. Older property could use a face lift but the place was clean and that means a lot. I have  stayed in nicer rooms for the same price but I have also stayed in worse rooms. All in all its just a place to sleep nothing really outstanding.More</t>
   </si>
   <si>
-    <t>Houstonian1977</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r366734291-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>366734291</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Quality Inn Terrell Texas needs help</t>
+  </si>
+  <si>
+    <t>This hotel has great potential. The linen and Terry are excellent the window coverings are very nice the room is good. But do not book this hotel unless you are capable of hauling your luggage upstairs on your own. There is no elevator and they don't tell you that until after you have checked in. There was also a long black hair in the sink which did not belong to us. We should have been more leery as when we walked in the front door there were two used washers and dryers sitting next to the staircase with a for sale sign on them. The front desk clerk was very good when I was booking the room shortly before our arrival. But when I objected to her not informing me that there is no elevator she got very snotty with me. Had we not been so tired and not wishing to drive all the way to Dallas tonight we would have to check out of this hotel for something more desirable.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has great potential. The linen and Terry are excellent the window coverings are very nice the room is good. But do not book this hotel unless you are capable of hauling your luggage upstairs on your own. There is no elevator and they don't tell you that until after you have checked in. There was also a long black hair in the sink which did not belong to us. We should have been more leery as when we walked in the front door there were two used washers and dryers sitting next to the staircase with a for sale sign on them. The front desk clerk was very good when I was booking the room shortly before our arrival. But when I objected to her not informing me that there is no elevator she got very snotty with me. Had we not been so tired and not wishing to drive all the way to Dallas tonight we would have to check out of this hotel for something more desirable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r361863932-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>361863932</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Canton trip</t>
+  </si>
+  <si>
+    <t>A friend and I planned a trip to Canton for their "First Monday Trade Days".  Hotels in Canton are limited so I booked one of the cheaper hotels in Terrell.  The hotel wasn't bad for a two night stay.  The only thing I didn't like was it appeared that the front desk people must own or live at the hotel.  We came in the small lobby, rang the bell and a man come to the counter from the back tucking in his t-shirt.  I'm honestly not even sure if he had shoes on.  He and his wife were friendly, just not very professional. Due to it being a "Trade Days" weekend the hotels booked up very fast and seemed a little higher in price.  This was one of the cheaper hotels.  The room was clean and had been updated.  I'd stay there again...MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>A friend and I planned a trip to Canton for their "First Monday Trade Days".  Hotels in Canton are limited so I booked one of the cheaper hotels in Terrell.  The hotel wasn't bad for a two night stay.  The only thing I didn't like was it appeared that the front desk people must own or live at the hotel.  We came in the small lobby, rang the bell and a man come to the counter from the back tucking in his t-shirt.  I'm honestly not even sure if he had shoes on.  He and his wife were friendly, just not very professional. Due to it being a "Trade Days" weekend the hotels booked up very fast and seemed a little higher in price.  This was one of the cheaper hotels.  The room was clean and had been updated.  I'd stay there again...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r358168028-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -543,9 +855,6 @@
     <t>Very run down hotel, staff knew only the basics of customer service.  When I requested sheets and blankets for the sofa bed, I was given one sheet and one unfolded/disorganized bed cover.  I had to ask for pillows and a second blanket.  The bed cover had a cigarette hole in it.  The hotel lobby smelled like cigarette.More</t>
   </si>
   <si>
-    <t>Andrea W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r347948731-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -573,9 +882,6 @@
     <t>No elevator in the hotel would be the biggest negative.  Room was clean and bed was comfortable.  We were told it would have a hot breakfast, but all that was offered hot was waffles.  The orange juice was sour and the apple juice tasted like water.  Ended up eating yogurt.  All the rooms said "Non Smoking" but someone was breaking the rules because the second floor smelled awful.  For the price though, it was a nice hotel.More</t>
   </si>
   <si>
-    <t>dash00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r328729049-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -594,9 +900,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded November 27, 2015</t>
   </si>
   <si>
@@ -606,7 +909,52 @@
     <t>My husband and I spent one night here on our travel through Texas.  We had a king suite.  The room was clean, the bed was comfortable, and the sofa was comfortable.  The service was good and the fridge in our room was cold.  This is  a two story hotel with no elevator.  I have a bad knee so if I were to stay more than one night that would be a problem.  The decor was dated but it wasn't shabby.  We could hear the road noise.  There are a number of restaurants close by.  They have the typical fee breakfast.  I got a good rate so I suppose I would stay there again because of the rate and the cleanliness.  The wifi was practically non exitant which was totally annoying.  I had to change some of my upcoming travel plans but I had to do it by phoneMore</t>
   </si>
   <si>
-    <t>Gallen999</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r320206391-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>320206391</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Nice and Spacious</t>
+  </si>
+  <si>
+    <t>We stayed in a room with a king and a queen sleep sofa.  It was nice having a sitting area.  The room was spacious and the sleeper was fairly comfortable.  There was a refrigerator and microwave, a coffee maker, hair dryer, good desk, comfortable beds and free wifi.  The breakfast was nice as well with a good selection of fresh fruit and yogurt as well as waffles, sausage, and assorted bagels and pastries and cereals.  The location was very convenient and we would stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in a room with a king and a queen sleep sofa.  It was nice having a sitting area.  The room was spacious and the sleeper was fairly comfortable.  There was a refrigerator and microwave, a coffee maker, hair dryer, good desk, comfortable beds and free wifi.  The breakfast was nice as well with a good selection of fresh fruit and yogurt as well as waffles, sausage, and assorted bagels and pastries and cereals.  The location was very convenient and we would stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r316304784-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>316304784</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>We had two connecting rooms. They were clean and the beds were comfortable. There is not an elevator so we had to carry the luggage and other items up the staircase. Ice machine is on first floor. There are several places to eat near the hotel. Shopping across the interstate. Carmona's is a good Mexican restaurant. The staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>We had two connecting rooms. They were clean and the beds were comfortable. There is not an elevator so we had to carry the luggage and other items up the staircase. Ice machine is on first floor. There are several places to eat near the hotel. Shopping across the interstate. Carmona's is a good Mexican restaurant. The staff were friendly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r291906629-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -636,9 +984,6 @@
     <t>Just 30 minutes from Dallas on the Interstate 20. Room is spacious and great value for money. King bed in the room. Breakfast room large but they use paper plates. Ask for a room on opposite side from the interstate. Fast free wifi available. Staff helpful especially Victoria on the front desk. Across the interstate from the Outlet Centre.More</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r282873298-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -666,9 +1011,6 @@
     <t>The room was fine but when we arrived my husband wasn't feeling well and just wanted to relax. So the man at desk gave us a room but said "it SHOULD be clean". So we walk to far end of hotel, go inside and of course it's not clean! So I have to go back, wait to find another room, and then haul our stuff up steps cause there is no elevator. People in room next to us had a dog that would bark whenever it heard a noise too. Just unpleasantMore</t>
   </si>
   <si>
-    <t>jdkittrell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r281668859-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -696,7 +1038,58 @@
     <t>We wanted to get past Dallas heading east on I-20, and Terrell was a perfect place to stop for the night. We got there late, but service was good, and the rooms were a decent. We even had room for a roll-away bed. The only letdown was that there was not a fridge in our room. There HAD been one there recently because you could see the dust around where it HAD sat. By the way, it is across the overpass from Tanger Outlets although we did not have time to shop there.More</t>
   </si>
   <si>
-    <t>William T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r260114902-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>260114902</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>on the road headed home</t>
+  </si>
+  <si>
+    <t>just needed a place to stay while traveling, just average but comfortable and clean, the room was clean and the front desk person was very nice, the stopper in the tub did not work, overall it was just avergeMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded March 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2015</t>
+  </si>
+  <si>
+    <t>just needed a place to stay while traveling, just average but comfortable and clean, the room was clean and the front desk person was very nice, the stopper in the tub did not work, overall it was just avergeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r252219378-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>252219378</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Moving trip</t>
+  </si>
+  <si>
+    <t>We were helping our son move across the country and stayed here. The room was clean and comfortable. Breakfast was hot and ready, and the staff was super friendly, even bringin out extra items for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... T, General Manager at Quality Inn and Suites, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>We were helping our son move across the country and stayed here. The room was clean and comfortable. Breakfast was hot and ready, and the staff was super friendly, even bringin out extra items for us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242964786-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -723,9 +1116,6 @@
     <t>This comfort inn was a very nice hotel.  Staff was very friendly.  The rooms were very clean.  The breakfast was as good as you can get at any comfort inn.  If you plan on stay a night or more in Terrell, Tx you will enjoy your stay at this comfort inn.More</t>
   </si>
   <si>
-    <t>chandana_silva</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242637412-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -744,9 +1134,6 @@
     <t>I was looking for a comfortable sleep after driving from Houston and  was surprised with a Jacuzzi room in the first floor.It's an old building. I enjoyed reading the papers in the Jacuzzi. Later I realized it was not 100% clean. The bed was comfortable and helped me to decompress. The Ac was working fine. The Bathroom was clean.The continental breakfast was ok.More</t>
   </si>
   <si>
-    <t>newdesertred</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r242557523-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -762,7 +1149,55 @@
     <t>We've stayed here twice before, and were very pleased with the hotel.  It's on the way out of the Dallas area (if you're heading east), was well-maintained, and very economical.  But this time we noted some deficiencies in the cleanliness of the room. The rug needed vacuuming, there was food left in the refrigerator, and we had the sense that the room had not been given the attention that was so obvious during our previous visits.  But the upside was the response by the manager the next day as we checked out.  He was very solicitous and assured us the rooms would be attended to; he also credited our account with Choice Hotel points to make up for the situation.  So, we're willing to try this hotel again.More</t>
   </si>
   <si>
-    <t>snowflakesovrtx</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r237874257-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>237874257</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>We requested the jacuzzi room and it was about $135 a night which is great considering they could have put a premium on it for being first monday in Canton. This place is about 20-30 minutes away from there. They do serve hot breakfast, such as egg patties, sausage with gravy and biscuits, and you could make waffles. The room was very clean, no bugs, no mildew, or dust. My husband and I enjoyed our stay, and our in-room whirlpool.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>We requested the jacuzzi room and it was about $135 a night which is great considering they could have put a premium on it for being first monday in Canton. This place is about 20-30 minutes away from there. They do serve hot breakfast, such as egg patties, sausage with gravy and biscuits, and you could make waffles. The room was very clean, no bugs, no mildew, or dust. My husband and I enjoyed our stay, and our in-room whirlpool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r236417551-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>236417551</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Hot breakfast??</t>
+  </si>
+  <si>
+    <t>This hotel advertised a hot breakfast.  This consisted of biscuits and sausage gravy, some kind of processed eggs and a mix to make your own waffles the first day - not too bad. The second day was link sausage and the processed eggs.  There were the usual continental breakfast foods.The room was OK, if you like a very firm bed.  Be sure to get a room on the first floor if you stay here as there is no elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2014</t>
+  </si>
+  <si>
+    <t>This hotel advertised a hot breakfast.  This consisted of biscuits and sausage gravy, some kind of processed eggs and a mix to make your own waffles the first day - not too bad. The second day was link sausage and the processed eggs.  There were the usual continental breakfast foods.The room was OK, if you like a very firm bed.  Be sure to get a room on the first floor if you stay here as there is no elevator.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r231108676-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -792,9 +1227,6 @@
     <t>The first room we were given had an a/c that was not working properly (no cold air blowing after 3 hours) in room 110.  The clerk was more than happy to relocate us and we greatly appreciated it.  In agreement with another reviewer, this is an older property that has had a facelift. There is no elevator so be prepared to haul your luggage up a beautiful, curved staircase, Also, the front entrance doors are NOT automatic sliding doors- be prepared to have a spare hand ready. The mattresses have padded covers on them for added comfort, but lack the comfort of pillow-top mattresses.  Parking is in the front of the building, there is only a dirt lot behind the hotel.  However, Sonic, Waffle House, Starbucks and a few convenience stores are located nearby.  Overall, this is an acceptable hotel for a one-night stay.More</t>
   </si>
   <si>
-    <t>cuzn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r228288864-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -819,9 +1251,6 @@
     <t>This Comfort Inn an older property and could use a facelift.  The room was fairly clean and the A/C worked OK.The staff was friendly and courteous.  The breakfast was very basic and limited quantities were available. Wi-Fi was OK.The window glass was cracked and the window was screwed shut so it could not be opened.More</t>
   </si>
   <si>
-    <t>BeckyRN1979</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r220265783-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -849,6 +1278,60 @@
     <t>My husband and I have stayed here twice  during our visit to Clear Springs Scuba Park.  The staff is very friendly and helpful.  The free breakfast is great, includes, eggs, waffles, fruit, cereal, yogurt ect.  Only about 20 minute drive to Canton flea marker too!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r219478149-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>219478149</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Good place to stay!</t>
+  </si>
+  <si>
+    <t>We spent two nights here, and were almost completely satisfied with our stay.  We picked this Comfort Inn for the price, and for the location bet6ween Dallas and Canton. The room was comfortable and clean.  The included breakfast was fine for our needs.  Location is convenient - right off I-20.  The only negative was that the water in the "hot tub" was not heated.  We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded August 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2014</t>
+  </si>
+  <si>
+    <t>We spent two nights here, and were almost completely satisfied with our stay.  We picked this Comfort Inn for the price, and for the location bet6ween Dallas and Canton. The room was comfortable and clean.  The included breakfast was fine for our needs.  Location is convenient - right off I-20.  The only negative was that the water in the "hot tub" was not heated.  We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r208970076-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>208970076</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Below average for a Comfort Inn</t>
+  </si>
+  <si>
+    <t>This property is below the standard of other Comfort Inns we have stayed at in other places.   It has all the basics but it is a older property and shows its age.  The room was clean, bed comfortable, A/C good, and bathroom shower new.  Large flat screen TV with clear reception.  WiFi signal good and free.  Breakfast area very small with standard Comfort Inn fare.  Property upkeep and maintenance done but at a homeowner quality and not at a professional level.  Room needed better lighting.  No elevator for 2nd floor.  We rate this Comfort Inn a value ONLY if booked at the coupon rate.  At that rate we had a comfortable stay in a clean room.  Coupon for this property was available in the Interstate Travel Coupon books.  At full rate we would have moved on to another motel in the area -- there are several nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded June 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2014</t>
+  </si>
+  <si>
+    <t>This property is below the standard of other Comfort Inns we have stayed at in other places.   It has all the basics but it is a older property and shows its age.  The room was clean, bed comfortable, A/C good, and bathroom shower new.  Large flat screen TV with clear reception.  WiFi signal good and free.  Breakfast area very small with standard Comfort Inn fare.  Property upkeep and maintenance done but at a homeowner quality and not at a professional level.  Room needed better lighting.  No elevator for 2nd floor.  We rate this Comfort Inn a value ONLY if booked at the coupon rate.  At that rate we had a comfortable stay in a clean room.  Coupon for this property was available in the Interstate Travel Coupon books.  At full rate we would have moved on to another motel in the area -- there are several nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r190596275-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -876,9 +1359,6 @@
     <t>I've stayed here a couple of times over the last year, and have enjoyed my stay both times.  It's a well-kept, secure, clean and welcoming place.  The staff are very responsive and I'd recommend it highly.  The only drawback is that there is no elevator in this two-story building.  If you're on the second story, and depending on how much luggage you have, it may take a couple of trips up and down stairs to bring it all in.  But the other positives easily outweigh this one negative.More</t>
   </si>
   <si>
-    <t>TravelGrandma10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r188605234-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -903,9 +1383,6 @@
     <t>We stopped at this hotel when traveling on I-20 because of the great reviews and we were not disappointed.  The room was roomy and nicely furnished and the bathroom was beautifully appointed.  Everything was spotless also.  This was a great hotel room especially considering the price!  I highly recommend this place.More</t>
   </si>
   <si>
-    <t>Mark-Rachel M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r186464494-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -933,7 +1410,55 @@
     <t>I stayed for a weekend in November for a diving event at Clear Springs Scuba Park. We've been impressed with other Choice offerings, which was why I picked this one. I was very impressed with the size and cleanliness of the room. It was a huge (at this price point) suite, with king bed on one side and desk/sitting area on the other. A large flat-screen, fridge, and microwave were included. The front desk staff was helpful and friendly. When I needed an extension cord, it took about 2 minutes and a call to the front. Check-in and check-out were both quick and painless. If I had one minor complaint (which is why I gave four stars instead of five), it would be the breakfast. It certainly wasn't 'bad.' There was cereal, bread, milk, juice, coffee, waffles, sausage, and eggs. I was just a little disappointed that the eggs and sausage were from frozen patties, and no other hot items such as potatoes or bacon. Other than that, I was very pleased with everything else about the hotel. Cleanliness is of the utmost importance to me in a hotel, and Comfort didn't disappoint.More</t>
   </si>
   <si>
-    <t>John C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r185824066-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>185824066</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Nice...but Where is the Elevator?</t>
+  </si>
+  <si>
+    <t>This was a great hotel, but I would advise there is no elevator inside. After almost dropping my nieces cupcakes and luggage (all at the same time), I finally made it up the stairs. The breakfast was real good, and the staff was very friendly. I could possibly stay here again, but I only want to stay on the first floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded November 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2013</t>
+  </si>
+  <si>
+    <t>This was a great hotel, but I would advise there is no elevator inside. After almost dropping my nieces cupcakes and luggage (all at the same time), I finally made it up the stairs. The breakfast was real good, and the staff was very friendly. I could possibly stay here again, but I only want to stay on the first floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r184613284-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>184613284</t>
+  </si>
+  <si>
+    <t>11/13/2013</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>Stayed overnight on a long trip. Didn't have a reservation but it wasn't a problem. Room and bath was clean. Overall a pleasant stay. Left early the next morning and didn't eat breakfast. Front desk staff was very friendly and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Stayed overnight on a long trip. Didn't have a reservation but it wasn't a problem. Room and bath was clean. Overall a pleasant stay. Left early the next morning and didn't eat breakfast. Front desk staff was very friendly and pleasant.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181743033-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -963,9 +1488,6 @@
     <t>Stayed here Friday night, had a very clean room on 1st floor. Bed were comfortable(pillows not so much). Nice TV, refrigerator and microwave in room. Front desk employee was nice. Breakfast was good. Good location to everything.More</t>
   </si>
   <si>
-    <t>Opecanty</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r181066774-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -993,9 +1515,6 @@
     <t>Nothing special and could have been cleaner. The jacuzzi didn't work but the desk manager was super nice. He needs to find a job at another hotel.  The pool area was very dirty. There wasn't an elevator and our room was on the far end. It is in a great location for me and I have stayed there twice.More</t>
   </si>
   <si>
-    <t>karl j</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r180036079-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +1530,6 @@
     <t>the staff was very helpful trying to resolve my issue.  clean room &amp; worth the extra for security compared to low price next door.  i was also given local maps &amp; good local suggestions by the staff (friendly &amp; chatty).  decent food choices nearby.  definitly will stop if i'm in that area of texas again.MoreShow less</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded October 9, 2013</t>
   </si>
   <si>
@@ -1023,7 +1539,58 @@
     <t>the staff was very helpful trying to resolve my issue.  clean room &amp; worth the extra for security compared to low price next door.  i was also given local maps &amp; good local suggestions by the staff (friendly &amp; chatty).  decent food choices nearby.  definitly will stop if i'm in that area of texas again.More</t>
   </si>
   <si>
-    <t>Shannonlage</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r178286547-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>178286547</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Average hotel but great service</t>
+  </si>
+  <si>
+    <t>The check in and check out was great, very good service from the clerks.  The room is very dated and musty along with the furnishings.  The room was dark had 25 watt bulbs.  The breakfast items were extremely limited in a very small room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>The check in and check out was great, very good service from the clerks.  The room is very dated and musty along with the furnishings.  The room was dark had 25 watt bulbs.  The breakfast items were extremely limited in a very small room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r166859959-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>166859959</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Place</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this motel, the room was clean and well kept, the guy who checked me in was very new but did a fantastic job of getting me a good room and he was very knowledgeable of the area, when I checked out in the morning, the desk clerk looked up my directions to my destination ans was kind enough to print the directions out for me. I will return to this place. Great motel and very nice service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this motel, the room was clean and well kept, the guy who checked me in was very new but did a fantastic job of getting me a good room and he was very knowledgeable of the area, when I checked out in the morning, the desk clerk looked up my directions to my destination ans was kind enough to print the directions out for me. I will return to this place. Great motel and very nice service.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r162321900-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1050,9 +1617,6 @@
     <t>We were really pleased with our stay. The location was great . The rooms were clean and quiet.The staff were friendly and the pool and hot tub perfect. The best part of this stay happened after we left though. We were nearly 21/2 hours away when the hotel called us and asked if we left a bag. We were so disappointed when we realized we left our bag with the IPad and some very expensive medications. They sent us a box COD and it arrived 2 days later. We did not expect what we found! Carefully wrapped were all of our items nothing missing!!! I couldn't believe it!! Thank you Hotel staff!!! We will always stay there when in your area!!! I am so thankful for your honesty. What a wonderful Hotel.More</t>
   </si>
   <si>
-    <t>Tom C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r159627522-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1644,6 @@
     <t>I was one of a large group of car club members who stayed at the hotel for 2 nights.  The service and welcome for our club was excellent.  I particularly want to thank the General Manager, Mack, for a very nice gesture:  I left two personal keys on a key chain in the room when I left to return to my home city.  I talked to Mack on the phone and he personally went to the post office to send the keys back to me in a padded envelope, all at no charge.  This is the kind of thoughtful service which brings customers back.More</t>
   </si>
   <si>
-    <t>PickyTravelGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r158630701-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1107,7 +1668,52 @@
     <t>If this is the best Terrell has to offer under $100, then the other properties must be pretty sad. Data:Locally-owned franchisee, not a corporate propertyPaid $71.99 on Tuesday night in late April; booked directly through Choice HotelsAverage wifi speed of 1.2Mbps down (hotel pretty empty)Google has the location wrong...take the first street (Mira Pl.) left after freeway off-ramp/on-ramp, not the 2nd one that Google recommendsDrive slowly on Mira Pl. as you drive in! Road in very bad disrepair and there is one big collapse under the pavement that your car will drag on if you're moving over 15 mphPros:Friendly front counter staffFlat-screen TVFridge and microwave in roomFirm bedsCons: As other guests said, seems old and tired and dirtySeemed to take a long time to get checked in. Not really staff's fault, though. Next to freeway: Request room on other side. Hottub: Hmmm, soak outdoors next to the freeway noise. Pass. Black hair in my old plastic showerPee stain on the underside of old toilet seatSpillage/dirt on stairs (no elevator)After SO MANY complaints about the cleanliness, you'd think they'd fire the housekeeping staff, but maybe they are family and therefore not fire-able. Solution: Show the staff these reviews!More</t>
   </si>
   <si>
-    <t>FRQNT F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r157484324-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>157484324</t>
+  </si>
+  <si>
+    <t>04/12/2013</t>
+  </si>
+  <si>
+    <t>Seems to be in a bit of a decline..</t>
+  </si>
+  <si>
+    <t>The property seems to be in a bit of decline. It's more expensive than last year and $135 a night is ridiculous for a Comfort Inn. The place needed a good cleaning.  The rooms were dirty and dingy and the bed was uncomfortable.  The front desk staff was friendly, though.Of course, there are not too many places to stay in Terrell so that might be part of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2013</t>
+  </si>
+  <si>
+    <t>The property seems to be in a bit of decline. It's more expensive than last year and $135 a night is ridiculous for a Comfort Inn. The place needed a good cleaning.  The rooms were dirty and dingy and the bed was uncomfortable.  The front desk staff was friendly, though.Of course, there are not too many places to stay in Terrell so that might be part of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r156737926-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>156737926</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>A dirty place - too bad</t>
+  </si>
+  <si>
+    <t>This place needs some cleaning. Comfort Inns have been very good to us till now. I even mentioned to the desk person that the halls and stairs needed a good vacumming. We were there 3 nights and watched the same dirt accumulate in the hallways for the entire trip. What a shame! It is a nice place with a nice location but definitely a dirty story.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2013</t>
+  </si>
+  <si>
+    <t>This place needs some cleaning. Comfort Inns have been very good to us till now. I even mentioned to the desk person that the halls and stairs needed a good vacumming. We were there 3 nights and watched the same dirt accumulate in the hallways for the entire trip. What a shame! It is a nice place with a nice location but definitely a dirty story.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r156070497-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1125,9 +1731,6 @@
     <t>Hotel faces the Highway so request a back room if road noise is an issue. Well appointed rooms with  Flat screen, desk, micro, and refrig. Funky adjustable showerhead, but I got used to it. Typical breakfast nook with sausage, waffles, and eggs in addition to the typical cereal and sweet rolls. Hotel leaves fruit out 24x7 so a snack is always available. The HBO channel 6 did not work and when I advised the front desk they seemed surprised.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded April 1, 2013</t>
   </si>
   <si>
@@ -1137,9 +1740,6 @@
     <t>Hotel faces the Highway so request a back room if road noise is an issue. Well appointed rooms with  Flat screen, desk, micro, and refrig. Funky adjustable showerhead, but I got used to it. Typical breakfast nook with sausage, waffles, and eggs in addition to the typical cereal and sweet rolls. Hotel leaves fruit out 24x7 so a snack is always available. The HBO channel 6 did not work and when I advised the front desk they seemed surprised.More</t>
   </si>
   <si>
-    <t>KKV14</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r154809784-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1167,9 +1767,6 @@
     <t>I stayed here, along with several colleagues for an extended business trip. The staff, especially the GM, Mack, was very accommodating and willing to go the extra mile every time we needed them. Rooms were clean, quiet and spacious. Thanks again for everything!More</t>
   </si>
   <si>
-    <t>Patty L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r153001695-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1197,7 +1794,55 @@
     <t>Good service at check-in (3 am), and the room was clean and comfortable. We slept in too late for breakfast. The non-smoking room was apparently truly non-smoking (smelled fine, and I am very sensitive to the smell of smoke). However, there was a faint smell of smoke in the hallway in the morning. However, it did not move into the room. Overall, good stay.More</t>
   </si>
   <si>
-    <t>CWG_77</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r148652032-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>148652032</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Respectful staff, Cozy &amp; Clean Room</t>
+  </si>
+  <si>
+    <t>Had a very pleasant stay. I have no complaints. I checked in at around 1 am and the young lady at front desk was very nice,and helpful she made me feel welcome. The room was very clean and cozy deffenitly got a goodd nights rest. Brkfast was AMAZING the texas sized waffles get a two thumbs up. When i am in the area again i will defenitly stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Had a very pleasant stay. I have no complaints. I checked in at around 1 am and the young lady at front desk was very nice,and helpful she made me feel welcome. The room was very clean and cozy deffenitly got a goodd nights rest. Brkfast was AMAZING the texas sized waffles get a two thumbs up. When i am in the area again i will defenitly stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r145381234-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>145381234</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Exceptional Stay</t>
+  </si>
+  <si>
+    <t>This was my first time staying at the Comfort Inn in Terrell and I must say it was extremely enjoyable. The staff was very professional at all times and catered to all of our needs. A special thanks to the GM Mack for being so kind. The hotel room was Immaculate!!! Very Clean and the beds were comfortable. I give this hotel a perfect 10.I will be staying at the hotel for the next couple Saturdays so this is home away from home. See you next Saturday! Thanks Cala MontanoMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded November 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2012</t>
+  </si>
+  <si>
+    <t>This was my first time staying at the Comfort Inn in Terrell and I must say it was extremely enjoyable. The staff was very professional at all times and catered to all of our needs. A special thanks to the GM Mack for being so kind. The hotel room was Immaculate!!! Very Clean and the beds were comfortable. I give this hotel a perfect 10.I will be staying at the hotel for the next couple Saturdays so this is home away from home. See you next Saturday! Thanks Cala MontanoMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r145144969-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1224,9 +1869,6 @@
     <t>Decent price. The hotel had a comfortable room with good tv and Internet. There is plenty to eat in driving and walking distance. The street leading into the hotel has some potholes that could swallow a small car. That's not their fault though its just a warning. It is a little dirty but I have stayed in places that charge 3 times the amount here and were worse. More</t>
   </si>
   <si>
-    <t>goingforitalways</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r143684469-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1251,9 +1893,6 @@
     <t>For a couple of really weary travellers, we were truly pleased and grateful for our stay at the Comfort Inn.  Clean, quiet and a beautiful, spacious room fit our needs to a tee.  Will definitely stay there when we go back through.  There were six or so hotels to stay at and we're so glad we chose the right one! More</t>
   </si>
   <si>
-    <t>Emmy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r140373342-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1278,7 +1917,58 @@
     <t>I may just be cynical because I spent an hour trying to find the 'main road' (read La Quinta if you need the main road story) but this was not the greatest place we were on the second floor there was no elevator so we had to haul the bags up the stairs.  The water tasted sulphuric and I could barely gag any down. Otherwise it was great not the cleanest and by far worst water ever actually woke up early to go buy a bottle from Starbucks.More</t>
   </si>
   <si>
-    <t>Glenmere7</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r134277112-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>134277112</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Room is nice; breakfast not great</t>
+  </si>
+  <si>
+    <t>We stay at this motel 5-6 times a year because of proximity to Lake Tawokoni. Rooms are nice and comfortable (except this time we found a wet wash cloth behind the ice container on the bathroom counter.)  Beds are comfortable and air conditioner worked well.  Pool was enjoyable.Our main complaint concerns breakfast.  I did ask once before that meat be included and since then square eggs and sausage links are available. They are OK. Waffles and different (not tasty) sweet rolls are available.  Oatmeal, cereal, toast and boiled eggs are available.  However, this time the juice container was on the blink for a while, then after it got going the juice was watered down.  And, un- believeably,  the coffee was weak and odd tasting. My husband even noticed it, and he's not a heavy coffee drinker. We had to go down to a convenience store that served good Community coffee on our way out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>We stay at this motel 5-6 times a year because of proximity to Lake Tawokoni. Rooms are nice and comfortable (except this time we found a wet wash cloth behind the ice container on the bathroom counter.)  Beds are comfortable and air conditioner worked well.  Pool was enjoyable.Our main complaint concerns breakfast.  I did ask once before that meat be included and since then square eggs and sausage links are available. They are OK. Waffles and different (not tasty) sweet rolls are available.  Oatmeal, cereal, toast and boiled eggs are available.  However, this time the juice container was on the blink for a while, then after it got going the juice was watered down.  And, un- believeably,  the coffee was weak and odd tasting. My husband even noticed it, and he's not a heavy coffee drinker. We had to go down to a convenience store that served good Community coffee on our way out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r130707456-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>130707456</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Convenient stay. Would stay here again!</t>
+  </si>
+  <si>
+    <t>We stayed at the comfort inn in Terrell for a wedding. It was conveniently located for our needs. This hotel was MUCH cheaper than the holiday inn express we stayed at last time and we found it adequate for our stay. I am a very light sleeper and despite a loud AC unit, I slept peacefully. There were a lot of kids in the hotel and you could hear them running about from time to time during daylight hours.  Otherwise it was very quiet. There is no elevator so if you cannot maneuver a curved, carpeted stairway healing your luggage, ask for a room on the first floor. Overall we enjoyed our stay and will return here for the next event we have in Terrell. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded May 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2012</t>
+  </si>
+  <si>
+    <t>We stayed at the comfort inn in Terrell for a wedding. It was conveniently located for our needs. This hotel was MUCH cheaper than the holiday inn express we stayed at last time and we found it adequate for our stay. I am a very light sleeper and despite a loud AC unit, I slept peacefully. There were a lot of kids in the hotel and you could hear them running about from time to time during daylight hours.  Otherwise it was very quiet. There is no elevator so if you cannot maneuver a curved, carpeted stairway healing your luggage, ask for a room on the first floor. Overall we enjoyed our stay and will return here for the next event we have in Terrell. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r130309174-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1299,9 +1989,6 @@
 Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee...The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.Pros to Comfort Inn Terrell:  Accommodating and friendly front desk staff.  Easy check-in and check-out.Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee table, well-equipped work station, fridge and microwave. The bathroom is also a decent size and has a coffeemaker. Consistently strong wi-fi connection at no extra charge.Bed was very comfortable.Little or no interior noise transfer (though when we stayed here, the motel was not at full occupancy).Breakfast is included and offers both hot and cold items. It is served from 6:00 to 10:00 a.m. in a small breakfast area with three tables.Complimentary copies of The Wall Street Journal are available in the lobby.The fitness center, also open at 6:00 a.m., is adequate for a modest workout (very small, though, with one treadmill, one exercise bike, and freeweights.)Computer and printer available in the lobby for guest use (no  business center).Wide range of TV viewing options, including HBO and other premium channels.Cons:Some things are on the cheap side, such as bathroom towels that have seen better days, flimsy individually wrapped plastic drinking cups that leak, and an inexpensive plastic tub-shower combination in the bath . (On the other hand, the multiple-spray shower head is nice.)Housekeeping has a few gaps. The bathroom was not outfitted with two complete sets of towels and wash cloths, so we had to ask for the missing items.Tire whine from nearby I-20 can be heard in the room. However, it was not bad enough to keep us awake, and with the air conditioning running it is not severe.Possibly because of some sort of corporate incest, in order to log onto the internet at Comfort Inn, you must set Google as your homepage.  Of course, this can be undone later, but it irked me.The outdoor hot tub and swimming pool are wedged between the parking lot and the lobby. After a swim, one must drip directly into the lobby from the pool.  Awkward.MoreShow less</t>
   </si>
   <si>
-    <t>May 2012</t>
-  </si>
-  <si>
     <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded May 22, 2012</t>
   </si>
   <si>
@@ -1314,9 +2001,6 @@
 Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee...The motel is just off I-20, jammed in between a Best Western and a Motel 6. We flew into DFW late in the evening and wanted to be out of the range of Dallas area traffic when we continued the road trip the following morning. This motel is about 45 miles from the airport. The room was clean and comfortable, quite adequate for our one-night stopover needs, and free of any major problems.  Rooms open onto interior corridors. We were also pleased to discover that Terrell is what’s known in Texas as a “wet” municipality. For those of us who enjoy picking up a six-pack and taking it to the motel room, being in a wet area is a plus in a state that is an unpredictable patchwork of wet and dry cities and counties.  For food, there are pancake and waffle houses, fast food, and one or two other unremarkable dining possibilities close by. The motel is located near a small outlet mall on the opposite side of I-20. Downtown Terrell is a short drive to the north. Despite a few inconveniences, we were generally satisfied with our experience here and felt it was a good value.  Specific pros and cons are below.Pros to Comfort Inn Terrell:  Accommodating and friendly front desk staff.  Easy check-in and check-out.Good room size. Our king room was about 23x13 ft. and included a small partially partitioned sitting area with sofa, coffee table, well-equipped work station, fridge and microwave. The bathroom is also a decent size and has a coffeemaker. Consistently strong wi-fi connection at no extra charge.Bed was very comfortable.Little or no interior noise transfer (though when we stayed here, the motel was not at full occupancy).Breakfast is included and offers both hot and cold items. It is served from 6:00 to 10:00 a.m. in a small breakfast area with three tables.Complimentary copies of The Wall Street Journal are available in the lobby.The fitness center, also open at 6:00 a.m., is adequate for a modest workout (very small, though, with one treadmill, one exercise bike, and freeweights.)Computer and printer available in the lobby for guest use (no  business center).Wide range of TV viewing options, including HBO and other premium channels.Cons:Some things are on the cheap side, such as bathroom towels that have seen better days, flimsy individually wrapped plastic drinking cups that leak, and an inexpensive plastic tub-shower combination in the bath . (On the other hand, the multiple-spray shower head is nice.)Housekeeping has a few gaps. The bathroom was not outfitted with two complete sets of towels and wash cloths, so we had to ask for the missing items.Tire whine from nearby I-20 can be heard in the room. However, it was not bad enough to keep us awake, and with the air conditioning running it is not severe.Possibly because of some sort of corporate incest, in order to log onto the internet at Comfort Inn, you must set Google as your homepage.  Of course, this can be undone later, but it irked me.The outdoor hot tub and swimming pool are wedged between the parking lot and the lobby. After a swim, one must drip directly into the lobby from the pool.  Awkward.More</t>
   </si>
   <si>
-    <t>Larry R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r127495006-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1341,9 +2025,6 @@
     <t>I stayed 5 days at the Comfort Inn in Terrell, Texas.  The service provided by the manager and his staff was always excellent.   The room was always clean and comfortable.  The breakfast was outstanding - plenty of good selections.  I will be staying again for sure.More</t>
   </si>
   <si>
-    <t>DSergi</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r126363266-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1368,7 +2049,58 @@
     <t>We had a week long trial in Kaufman county and our team stated here. The front desk service was great and accommodated our every need. The rooms were a bit worn but well kept and maintained. I'd stay here again. More</t>
   </si>
   <si>
-    <t>M W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r125002924-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>125002924</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>good hotel</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay here. Good beds,pillows linens,coffee pot ,blow dryer. .no elevator though. we were late getting in no problem getting what we requested . have no complaint against this one. the service was good did not get to try breakfast had to leave to early.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded March 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2012</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay here. Good beds,pillows linens,coffee pot ,blow dryer. .no elevator though. we were late getting in no problem getting what we requested . have no complaint against this one. the service was good did not get to try breakfast had to leave to early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r123354075-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>123354075</t>
+  </si>
+  <si>
+    <t>01/20/2012</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; convenient</t>
+  </si>
+  <si>
+    <t>We needed a convenient place to spend the night when driving across Texas (part of a 6,000 cross-country trip) &amp; the Comfort Inn was along our route. It was better than we expected for such a small town, with a large room &amp; ultra comfy bed. The staff at the front desk was knowledgeable &amp; easily answered our questions about the area.  Breakfast was adequate &amp; it was nice to have a microwave &amp; fridge in the room, even though we didn't need them. I doubt we'll be in the area again, but if so, would probably stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Comfortinntx503, General Manager at Quality Inn and Suites, responded to this reviewResponded January 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2012</t>
+  </si>
+  <si>
+    <t>We needed a convenient place to spend the night when driving across Texas (part of a 6,000 cross-country trip) &amp; the Comfort Inn was along our route. It was better than we expected for such a small town, with a large room &amp; ultra comfy bed. The staff at the front desk was knowledgeable &amp; easily answered our questions about the area.  Breakfast was adequate &amp; it was nice to have a microwave &amp; fridge in the room, even though we didn't need them. I doubt we'll be in the area again, but if so, would probably stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r121812995-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1398,9 +2130,6 @@
     <t>Traveling with my older parents, we were very tired and looking for a good place to stay at a decent price.  Loved the Comfort Inn in Terrell.  Remodeled recently, new tv's, great looking pool and hot tub, beds comfortable, friendly helpful service.  Thanks!More</t>
   </si>
   <si>
-    <t>Michael B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119833501-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1428,9 +2157,6 @@
     <t>Mr. Mack Patel:I had the pleasure of staying in your hotel, Comfort Inn at Terrell, Texas, on a return trip from New Mexico to Georgia.  The young lady who waited on me, Ms. Monalisa, did an outstanding job with our accommodations and other needs.  I travel a considerable amount with my job and it is always a pleasure to stay in a clean and safe hotel such as yours in Terrell, Texas.  What is an additional pleasure and surprise is when you encounter such an outstanding employee as Ms. Monalisa who is truly customer service orientated and goes out of her way to ensure each guest needs are addressed.  Please convey my sincere thanks to Ms. Monalisa for the outstanding service she provided during my stay.  This young lady is a true asset to your organization.Thank You,Michael J.BakerMore</t>
   </si>
   <si>
-    <t>gjhasselman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119692203-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1455,7 +2181,43 @@
     <t>Spent last night here on the way home from Dallas--didn't get there until midnight but was greeted by very pleasant clerk--found a great bed, good shower and average bed PLUS a great priceMore</t>
   </si>
   <si>
-    <t>Adlai</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r119158974-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>119158974</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>It felt like home</t>
+  </si>
+  <si>
+    <t>I am mainly writing because of the service I received while staying in this medium sized friendly hotel. Every person working during my 10 day stay went out of their way to make my stay feel 5 star. This small Texas town has certainly learned what hospitality means. I dealt with housekeeping, front desk, managers and breakfast staff, and each one managed to impress me with their personalized excellent service. I felt like a VIP, and I am not!!! I loved the convenience of the breakfast, which more than would meet the need of the average short stay traveler. Fresh waffles, hard boiled eggs, cereal, juices, and more.  My room and bathroom were as nice as the Hyatt I just stayed at which was more than double the price. It isn't a fancy place, but it was well located, and enjoyed. The general manager and the staff know what the customer wants and were polite, responsive and on top of their game in every respect. I still feel their smiles and warm greetings!MoreShow less</t>
+  </si>
+  <si>
+    <t>I am mainly writing because of the service I received while staying in this medium sized friendly hotel. Every person working during my 10 day stay went out of their way to make my stay feel 5 star. This small Texas town has certainly learned what hospitality means. I dealt with housekeeping, front desk, managers and breakfast staff, and each one managed to impress me with their personalized excellent service. I felt like a VIP, and I am not!!! I loved the convenience of the breakfast, which more than would meet the need of the average short stay traveler. Fresh waffles, hard boiled eggs, cereal, juices, and more.  My room and bathroom were as nice as the Hyatt I just stayed at which was more than double the price. It isn't a fancy place, but it was well located, and enjoyed. The general manager and the staff know what the customer wants and were polite, responsive and on top of their game in every respect. I still feel their smiles and warm greetings!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r115711734-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>115711734</t>
+  </si>
+  <si>
+    <t>07/24/2011</t>
+  </si>
+  <si>
+    <t>Comfortable and Well-Priced</t>
+  </si>
+  <si>
+    <t>I pass through Terrell a couple of times a year to visit area friends.  I've stayed at most of the hotels here near the outlet mall.  I'd rate this property way ahead of the Best Western and not as far up as the Holiday Inn.  But, for this stay, the Comfort Inn was nearly 1/2 the price of the Holiday Inn Express!The hotel shows some signs of wear but was clean, comfortable and friendly.  Pool is small.  Everything worked ok, although wifi was a little slow.  Heard just a little noise from the room above once.  Breakfast is the usual fare at these places - not exciting, but available and included in the rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>I pass through Terrell a couple of times a year to visit area friends.  I've stayed at most of the hotels here near the outlet mall.  I'd rate this property way ahead of the Best Western and not as far up as the Holiday Inn.  But, for this stay, the Comfort Inn was nearly 1/2 the price of the Holiday Inn Express!The hotel shows some signs of wear but was clean, comfortable and friendly.  Pool is small.  Everything worked ok, although wifi was a little slow.  Heard just a little noise from the room above once.  Breakfast is the usual fare at these places - not exciting, but available and included in the rate.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r110013772-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1476,9 +2238,6 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>jms1104</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r96286971-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1497,9 +2256,6 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>HaveRifleWillTravel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r94491110-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1521,7 +2277,37 @@
     <t>Have stayed at this hotel twice, once in Sept 2010, and once in Nov 2010.  The first stay was with my wife and we got a free upgrade to a jacuzzi room w/ complimentary bottle of cheap-o champagne.    Second stay was for work with a colleague.Rooms are average, but the beds are comfortable.  There is no elevator so lugging stuff up the stairs is a bit of a pain.  It is priced nicely for the area.  The breakfast in the morning sucks; your typical crappy "continental" breakfast of waffle maker, fruit, cold cereal and juice machine.Hotel staff were pleasant.  Overall for the value, it is a good hotel; would stay there again.More</t>
   </si>
   <si>
-    <t>cch1504</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r67654186-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>67654186</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>Oh my, what is that smell?</t>
+  </si>
+  <si>
+    <t>The instant we entered the lobby , we were greeted with a strong odor of incense that was obviously compensating for something. The owner was of Middle Eastern descent and did not speak English very well. He confused my reservation with someone else and it took about a half and hour to get it fixed. This hotel is a 2 story building with NO elevator! Try carrying 2 days of luggage up and down a spiral staricase. We left very unhappy with this hotel and with that smell on our clothes, our hair, and even in our car! Do not stay here without gasmask!</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r60295002-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>60295002</t>
+  </si>
+  <si>
+    <t>04/03/2010</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>We paid extra for a room with a jucuzzi and the water did not heat up. How romantic sitting in cold water. We asked the Indian manger for a discount and he refused to give us ANY discount.  I will never stay here again</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r52010362-Quality_Inn_and_Suites-Terrell_Texas.html</t>
@@ -1553,9 +2339,6 @@
 If the charges don't dissapear by the 30th then I'm stuck with filing a...This is a basic but newer hotel. It is decorated well, fairly clean and nice rooms. For my quoted rate of $69 per night for 1 adult would be a very good price for the conditions. However it was the last 20 minutes at the hotel that completely ruined my experience and I will not be returning. Upon checkout by an " ECruz " my invoice was $79 instead of the agreed $69. I kindly disputed this, she contacted a support department on the phone, corrected the issue and me another invoice. She informed me that I might see a charge for the incorrect amount, a credit for the incorrect amount and then a charge for the correct amount. I said that's fine, understanding that mistakes happen and no big deal.Two days later I check my bank account to find that I was charged FOUR times, NONE of which was a credit to my account. Approximately $325!!I immediately contacted the hotel and spoke to an " HPatel " who informed me that they only charged me two times, and then suggested I contact my bank. My bank confirmed that two of the charges were to be released by this evening, but the other two were charges, not holds. He contacted the hotel directly and got the same story I did about only charging twice.If the charges don't dissapear by the 30th then I'm stuck with filing a dispute with my bank and I'm out the money in the meantime. What an inconvenience!The hotel was nice, but not $325, $160 or worth any of this trouble. If you pay with cash, I'm sure you'll be happy and your money will be safe! Or stay at one of the many other hotels until this place learns to take better care of their customers when there is a problem MR. PATEL!More</t>
   </si>
   <si>
-    <t>jbooth2099</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r40047907-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1574,9 +2357,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>LisaAustin_Texas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r28145903-Quality_Inn_and_Suites-Terrell_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +2376,45 @@
   </si>
   <si>
     <t>The hotel has been recently renovated and everything was new. Great Price. Jacuzzi Suites are awesome with large jacuzzi's and you get a bottle of champagne with your reservation. The staff is absolutely the best. Friendly, helpful, professionally dressed and always ready to help with a smile. Breakfast was good. I have no complaints whatsoever. Itt was a wonderful experience and I highly recommend this Hotel to anyone traveling through Terrell, Texas. Worth stoping in even if Terrell, Tx is not your final destination.  Most of the other Hotel guest were business professionals and families traveling for fun.  This hotel does not have any local guest that are there for ,partying and disturbing the guest that are traveling. I can't say enough good about the Comfort Inn in Terrell, Texas. Reasonable Rates, Great Service, Great Rooms!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r10020531-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>10020531</t>
+  </si>
+  <si>
+    <t>09/30/2007</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Hotel, I had 20 rooms for my wedding.  I will tell everyone about this hotel.  They even upgraded my room to a suite for my honeymoon.  Dont stay anywhere but here, you will love the staff and the hotel.</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56759-d99590-r5906131-Quality_Inn_and_Suites-Terrell_Texas.html</t>
+  </si>
+  <si>
+    <t>5906131</t>
+  </si>
+  <si>
+    <t>10/02/2006</t>
+  </si>
+  <si>
+    <t>Kindly Staff, Good Beds, No Elevator</t>
+  </si>
+  <si>
+    <t>This hotel is not quite 10 years old at this writing.  It was neat and clean with southern hospitality style staff.  The one situation that may effect travelers is that this hotel does not have the usual ammenities of a Comfort Suite and the rooms are functional only.  The beds were good quality.During the first weekend of the month, most of the local hotels are booked solid because of a huge flea market located about 5 miles away.  This means that prices go up on the first weekend of the month.  The best deals were found on other websites, not the hotel itself.  It was disturbing to pay full price for a regular room while other travelers paid significantly less.  The staff does not negotiate lower rates on the first weekend of the month.  When you pay full price, you expect more which you do not get.  Another consideration is that although the rooms are all indoors, there is no elevator which was shocking because most hotels have an elevator.The breakfast area had hotcakes, but was a very tiny area so if you want a seat, get up either really early or really late.The meeting room had damaged tables so take tablecloths if appearance is important.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>This hotel is not quite 10 years old at this writing.  It was neat and clean with southern hospitality style staff.  The one situation that may effect travelers is that this hotel does not have the usual ammenities of a Comfort Suite and the rooms are functional only.  The beds were good quality.During the first weekend of the month, most of the local hotels are booked solid because of a huge flea market located about 5 miles away.  This means that prices go up on the first weekend of the month.  The best deals were found on other websites, not the hotel itself.  It was disturbing to pay full price for a regular room while other travelers paid significantly less.  The staff does not negotiate lower rates on the first weekend of the month.  When you pay full price, you expect more which you do not get.  Another consideration is that although the rooms are all indoors, there is no elevator which was shocking because most hotels have an elevator.The breakfast area had hotcakes, but was a very tiny area so if you want a seat, get up either really early or really late.The meeting room had damaged tables so take tablecloths if appearance is important.More</t>
   </si>
 </sst>
 </file>
@@ -2100,248 +2919,234 @@
       <c r="A2" t="n">
         <v>38978</v>
       </c>
-      <c r="B2" t="n">
-        <v>174044</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38978</v>
       </c>
-      <c r="B3" t="n">
-        <v>174045</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38978</v>
       </c>
-      <c r="B4" t="n">
-        <v>174046</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38978</v>
       </c>
-      <c r="B5" t="n">
-        <v>174047</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2353,61 +3158,53 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38978</v>
       </c>
-      <c r="B6" t="n">
-        <v>174048</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2418,66 +3215,62 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38978</v>
       </c>
-      <c r="B7" t="n">
-        <v>7777</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="n">
         <v>5</v>
       </c>
@@ -2489,60 +3282,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38978</v>
       </c>
-      <c r="B8" t="n">
-        <v>174049</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2554,57 +3343,57 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38978</v>
       </c>
-      <c r="B9" t="n">
-        <v>83974</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2615,833 +3404,751 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38978</v>
       </c>
-      <c r="B10" t="n">
-        <v>174050</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O10" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38978</v>
       </c>
-      <c r="B11" t="n">
-        <v>174051</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38978</v>
       </c>
-      <c r="B12" t="n">
-        <v>174052</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
         <v>141</v>
-      </c>
-      <c r="O12" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
-      <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>152</v>
-      </c>
-      <c r="X12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38978</v>
       </c>
-      <c r="B13" t="n">
-        <v>174053</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38978</v>
       </c>
-      <c r="B14" t="n">
-        <v>174054</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38978</v>
       </c>
-      <c r="B15" t="n">
-        <v>30449</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>181</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>182</v>
-      </c>
-      <c r="X15" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>184</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38978</v>
       </c>
-      <c r="B16" t="n">
-        <v>63571</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38978</v>
       </c>
-      <c r="B17" t="n">
-        <v>32293</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38978</v>
       </c>
-      <c r="B18" t="n">
-        <v>508</v>
-      </c>
-      <c r="C18" t="s">
-        <v>206</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38978</v>
       </c>
-      <c r="B19" t="n">
-        <v>16550</v>
-      </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38978</v>
       </c>
-      <c r="B20" t="n">
-        <v>6053</v>
-      </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>231</v>
-      </c>
-      <c r="O20" t="s">
-        <v>64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38978</v>
       </c>
-      <c r="B21" t="n">
-        <v>10167</v>
-      </c>
-      <c r="C21" t="s">
-        <v>235</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" t="n">
         <v>3</v>
       </c>
-      <c r="N21" t="s">
-        <v>231</v>
-      </c>
-      <c r="O21" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3451,801 +4158,713 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38978</v>
       </c>
-      <c r="B22" t="n">
-        <v>174055</v>
-      </c>
-      <c r="C22" t="s">
-        <v>242</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38978</v>
       </c>
-      <c r="B23" t="n">
-        <v>174056</v>
-      </c>
-      <c r="C23" t="s">
-        <v>248</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38978</v>
       </c>
-      <c r="B24" t="n">
-        <v>174057</v>
-      </c>
-      <c r="C24" t="s">
-        <v>258</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
       </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38978</v>
       </c>
-      <c r="B25" t="n">
-        <v>174058</v>
-      </c>
-      <c r="C25" t="s">
-        <v>267</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J25" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38978</v>
       </c>
-      <c r="B26" t="n">
-        <v>174054</v>
-      </c>
-      <c r="C26" t="s">
-        <v>242</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>133</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38978</v>
       </c>
-      <c r="B27" t="n">
-        <v>16955</v>
-      </c>
-      <c r="C27" t="s">
-        <v>286</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>192</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="X27" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38978</v>
       </c>
-      <c r="B28" t="n">
-        <v>56717</v>
-      </c>
-      <c r="C28" t="s">
-        <v>295</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38978</v>
       </c>
-      <c r="B29" t="n">
-        <v>364</v>
-      </c>
-      <c r="C29" t="s">
-        <v>305</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="J29" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="K29" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>192</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="X29" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38978</v>
       </c>
-      <c r="B30" t="n">
-        <v>125806</v>
-      </c>
-      <c r="C30" t="s">
-        <v>315</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="K30" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38978</v>
       </c>
-      <c r="B31" t="n">
-        <v>174059</v>
-      </c>
-      <c r="C31" t="s">
-        <v>325</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>151</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="X31" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="Y31" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38978</v>
       </c>
-      <c r="B32" t="n">
-        <v>174060</v>
-      </c>
-      <c r="C32" t="s">
-        <v>335</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="J32" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="K32" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
       </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4254,147 +4873,129 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="X32" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="Y32" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38978</v>
       </c>
-      <c r="B33" t="n">
-        <v>5561</v>
-      </c>
-      <c r="C33" t="s">
-        <v>344</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
-        <v>348</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="X33" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="Y33" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38978</v>
       </c>
-      <c r="B34" t="n">
-        <v>174061</v>
-      </c>
-      <c r="C34" t="s">
-        <v>354</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>192</v>
-      </c>
-      <c r="P34" t="n">
+        <v>177</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
         <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4404,359 +5005,321 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38978</v>
       </c>
-      <c r="B35" t="n">
-        <v>174062</v>
-      </c>
-      <c r="C35" t="s">
-        <v>363</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>151</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38978</v>
       </c>
-      <c r="B36" t="n">
-        <v>174063</v>
-      </c>
-      <c r="C36" t="s">
-        <v>373</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="O36" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="X36" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="Y36" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38978</v>
       </c>
-      <c r="B37" t="n">
-        <v>23772</v>
-      </c>
-      <c r="C37" t="s">
-        <v>383</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="X37" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="Y37" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38978</v>
       </c>
-      <c r="B38" t="n">
-        <v>174064</v>
-      </c>
-      <c r="C38" t="s">
-        <v>393</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>354</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="X38" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="Y38" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38978</v>
       </c>
-      <c r="B39" t="n">
-        <v>174065</v>
-      </c>
-      <c r="C39" t="s">
-        <v>402</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="J39" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s">
-        <v>406</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
         <v>5</v>
       </c>
@@ -4771,144 +5334,130 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="X39" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="Y39" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38978</v>
       </c>
-      <c r="B40" t="n">
-        <v>174066</v>
-      </c>
-      <c r="C40" t="s">
-        <v>411</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="J40" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="K40" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>147</v>
+      </c>
       <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38978</v>
       </c>
-      <c r="B41" t="n">
-        <v>174067</v>
-      </c>
-      <c r="C41" t="s">
-        <v>420</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>426</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>4</v>
@@ -4917,218 +5466,196 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>427</v>
+        <v>363</v>
       </c>
       <c r="X41" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="Y41" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38978</v>
       </c>
-      <c r="B42" t="n">
-        <v>35575</v>
-      </c>
-      <c r="C42" t="s">
-        <v>430</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="J42" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38978</v>
       </c>
-      <c r="B43" t="n">
-        <v>174068</v>
-      </c>
-      <c r="C43" t="s">
-        <v>439</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>390</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
       <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="X43" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="Y43" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38978</v>
       </c>
-      <c r="B44" t="n">
-        <v>16758</v>
-      </c>
-      <c r="C44" t="s">
-        <v>448</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>450</v>
+        <v>395</v>
       </c>
       <c r="J44" t="s">
-        <v>451</v>
+        <v>396</v>
       </c>
       <c r="K44" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -5138,73 +5665,63 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="X44" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="Y44" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38978</v>
       </c>
-      <c r="B45" t="n">
-        <v>967</v>
-      </c>
-      <c r="C45" t="s">
-        <v>458</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>463</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5213,72 +5730,64 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="X45" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="Y45" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38978</v>
       </c>
-      <c r="B46" t="n">
-        <v>174069</v>
-      </c>
-      <c r="C46" t="s">
-        <v>468</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="J46" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="K46" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>464</v>
+        <v>416</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5288,353 +5797,345 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="X46" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="Y46" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38978</v>
       </c>
-      <c r="B47" t="n">
-        <v>174070</v>
-      </c>
-      <c r="C47" t="s">
-        <v>477</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="J47" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
         <v>5</v>
       </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
       <c r="Y47" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38978</v>
       </c>
-      <c r="B48" t="n">
-        <v>174071</v>
-      </c>
-      <c r="C48" t="s">
-        <v>484</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
         <v>2</v>
       </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>3</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>435</v>
+      </c>
+      <c r="X48" t="s">
+        <v>436</v>
+      </c>
       <c r="Y48" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38978</v>
       </c>
-      <c r="B49" t="n">
-        <v>174072</v>
-      </c>
-      <c r="C49" t="s">
-        <v>491</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="J49" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="K49" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="L49" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>444</v>
+      </c>
+      <c r="X49" t="s">
+        <v>445</v>
+      </c>
       <c r="Y49" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38978</v>
       </c>
-      <c r="B50" t="n">
-        <v>174073</v>
-      </c>
-      <c r="C50" t="s">
-        <v>499</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>500</v>
+        <v>447</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>501</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>503</v>
+        <v>450</v>
       </c>
       <c r="L50" t="s">
-        <v>504</v>
+        <v>451</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>452</v>
+      </c>
+      <c r="X50" t="s">
+        <v>453</v>
+      </c>
       <c r="Y50" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38978</v>
       </c>
-      <c r="B51" t="n">
-        <v>78991</v>
-      </c>
-      <c r="C51" t="s">
-        <v>507</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="J51" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="L51" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" t="n">
         <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5646,81 +6147,2918 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>461</v>
+      </c>
+      <c r="X51" t="s">
+        <v>462</v>
+      </c>
       <c r="Y51" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38978</v>
       </c>
-      <c r="B52" t="n">
-        <v>174074</v>
-      </c>
-      <c r="C52" t="s">
-        <v>514</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="J52" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="L52" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
         <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>469</v>
+      </c>
+      <c r="X52" t="s">
+        <v>470</v>
+      </c>
       <c r="Y52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>476</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>477</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>478</v>
+      </c>
+      <c r="X53" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" t="s">
+        <v>484</v>
+      </c>
+      <c r="L54" t="s">
+        <v>485</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>486</v>
+      </c>
+      <c r="O54" t="s">
+        <v>177</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>487</v>
+      </c>
+      <c r="X54" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>490</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>491</v>
+      </c>
+      <c r="J55" t="s">
+        <v>492</v>
+      </c>
+      <c r="K55" t="s">
+        <v>493</v>
+      </c>
+      <c r="L55" t="s">
+        <v>494</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>495</v>
+      </c>
+      <c r="O55" t="s">
+        <v>177</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>496</v>
+      </c>
+      <c r="X55" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>499</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>500</v>
+      </c>
+      <c r="J56" t="s">
+        <v>501</v>
+      </c>
+      <c r="K56" t="s">
+        <v>502</v>
+      </c>
+      <c r="L56" t="s">
+        <v>503</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" t="s">
+        <v>147</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>504</v>
+      </c>
+      <c r="X56" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>507</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J57" t="s">
+        <v>509</v>
+      </c>
+      <c r="K57" t="s">
+        <v>510</v>
+      </c>
+      <c r="L57" t="s">
+        <v>511</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>512</v>
+      </c>
+      <c r="O57" t="s">
+        <v>147</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>513</v>
+      </c>
+      <c r="X57" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>516</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>517</v>
+      </c>
+      <c r="J58" t="s">
+        <v>518</v>
+      </c>
+      <c r="K58" t="s">
+        <v>519</v>
+      </c>
+      <c r="L58" t="s">
+        <v>520</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
         <v>521</v>
+      </c>
+      <c r="O58" t="s">
+        <v>147</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>522</v>
+      </c>
+      <c r="X58" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>525</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>526</v>
+      </c>
+      <c r="J59" t="s">
+        <v>527</v>
+      </c>
+      <c r="K59" t="s">
+        <v>528</v>
+      </c>
+      <c r="L59" t="s">
+        <v>529</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>530</v>
+      </c>
+      <c r="X59" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>533</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>534</v>
+      </c>
+      <c r="J60" t="s">
+        <v>535</v>
+      </c>
+      <c r="K60" t="s">
+        <v>536</v>
+      </c>
+      <c r="L60" t="s">
+        <v>537</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>538</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>539</v>
+      </c>
+      <c r="X60" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>542</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>543</v>
+      </c>
+      <c r="J61" t="s">
+        <v>544</v>
+      </c>
+      <c r="K61" t="s">
+        <v>545</v>
+      </c>
+      <c r="L61" t="s">
+        <v>546</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>538</v>
+      </c>
+      <c r="O61" t="s">
+        <v>177</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>547</v>
+      </c>
+      <c r="X61" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>550</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>551</v>
+      </c>
+      <c r="J62" t="s">
+        <v>552</v>
+      </c>
+      <c r="K62" t="s">
+        <v>553</v>
+      </c>
+      <c r="L62" t="s">
+        <v>554</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>512</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>555</v>
+      </c>
+      <c r="X62" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>558</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>559</v>
+      </c>
+      <c r="J63" t="s">
+        <v>560</v>
+      </c>
+      <c r="K63" t="s">
+        <v>561</v>
+      </c>
+      <c r="L63" t="s">
+        <v>562</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>512</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>563</v>
+      </c>
+      <c r="X63" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>566</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>567</v>
+      </c>
+      <c r="J64" t="s">
+        <v>568</v>
+      </c>
+      <c r="K64" t="s">
+        <v>569</v>
+      </c>
+      <c r="L64" t="s">
+        <v>570</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s">
+        <v>147</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>571</v>
+      </c>
+      <c r="X64" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>574</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>575</v>
+      </c>
+      <c r="J65" t="s">
+        <v>576</v>
+      </c>
+      <c r="K65" t="s">
+        <v>577</v>
+      </c>
+      <c r="L65" t="s">
+        <v>578</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>579</v>
+      </c>
+      <c r="O65" t="s">
+        <v>147</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>580</v>
+      </c>
+      <c r="X65" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>584</v>
+      </c>
+      <c r="J66" t="s">
+        <v>585</v>
+      </c>
+      <c r="K66" t="s">
+        <v>586</v>
+      </c>
+      <c r="L66" t="s">
+        <v>587</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>588</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>589</v>
+      </c>
+      <c r="X66" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>592</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>593</v>
+      </c>
+      <c r="J67" t="s">
+        <v>594</v>
+      </c>
+      <c r="K67" t="s">
+        <v>595</v>
+      </c>
+      <c r="L67" t="s">
+        <v>596</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>597</v>
+      </c>
+      <c r="X67" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>600</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>601</v>
+      </c>
+      <c r="J68" t="s">
+        <v>602</v>
+      </c>
+      <c r="K68" t="s">
+        <v>603</v>
+      </c>
+      <c r="L68" t="s">
+        <v>604</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>605</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>606</v>
+      </c>
+      <c r="X68" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>609</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>610</v>
+      </c>
+      <c r="J69" t="s">
+        <v>611</v>
+      </c>
+      <c r="K69" t="s">
+        <v>612</v>
+      </c>
+      <c r="L69" t="s">
+        <v>613</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>614</v>
+      </c>
+      <c r="X69" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>617</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>618</v>
+      </c>
+      <c r="J70" t="s">
+        <v>619</v>
+      </c>
+      <c r="K70" t="s">
+        <v>620</v>
+      </c>
+      <c r="L70" t="s">
+        <v>621</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>622</v>
+      </c>
+      <c r="X70" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>625</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>626</v>
+      </c>
+      <c r="J71" t="s">
+        <v>627</v>
+      </c>
+      <c r="K71" t="s">
+        <v>628</v>
+      </c>
+      <c r="L71" t="s">
+        <v>629</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>630</v>
+      </c>
+      <c r="X71" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>633</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>634</v>
+      </c>
+      <c r="J72" t="s">
+        <v>635</v>
+      </c>
+      <c r="K72" t="s">
+        <v>636</v>
+      </c>
+      <c r="L72" t="s">
+        <v>637</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>638</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>639</v>
+      </c>
+      <c r="X72" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>642</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>643</v>
+      </c>
+      <c r="J73" t="s">
+        <v>644</v>
+      </c>
+      <c r="K73" t="s">
+        <v>645</v>
+      </c>
+      <c r="L73" t="s">
+        <v>646</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>647</v>
+      </c>
+      <c r="O73" t="s">
+        <v>177</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>648</v>
+      </c>
+      <c r="X73" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>651</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>652</v>
+      </c>
+      <c r="J74" t="s">
+        <v>653</v>
+      </c>
+      <c r="K74" t="s">
+        <v>654</v>
+      </c>
+      <c r="L74" t="s">
+        <v>655</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>647</v>
+      </c>
+      <c r="O74" t="s">
+        <v>177</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>656</v>
+      </c>
+      <c r="X74" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>659</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>660</v>
+      </c>
+      <c r="J75" t="s">
+        <v>661</v>
+      </c>
+      <c r="K75" t="s">
+        <v>662</v>
+      </c>
+      <c r="L75" t="s">
+        <v>663</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>579</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>664</v>
+      </c>
+      <c r="X75" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>667</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>668</v>
+      </c>
+      <c r="J76" t="s">
+        <v>669</v>
+      </c>
+      <c r="K76" t="s">
+        <v>670</v>
+      </c>
+      <c r="L76" t="s">
+        <v>671</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>672</v>
+      </c>
+      <c r="X76" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>675</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>676</v>
+      </c>
+      <c r="J77" t="s">
+        <v>677</v>
+      </c>
+      <c r="K77" t="s">
+        <v>678</v>
+      </c>
+      <c r="L77" t="s">
+        <v>679</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>680</v>
+      </c>
+      <c r="O77" t="s">
+        <v>147</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>681</v>
+      </c>
+      <c r="X77" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>684</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>685</v>
+      </c>
+      <c r="J78" t="s">
+        <v>686</v>
+      </c>
+      <c r="K78" t="s">
+        <v>687</v>
+      </c>
+      <c r="L78" t="s">
+        <v>688</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>689</v>
+      </c>
+      <c r="O78" t="s">
+        <v>177</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>690</v>
+      </c>
+      <c r="X78" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>693</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>694</v>
+      </c>
+      <c r="J79" t="s">
+        <v>695</v>
+      </c>
+      <c r="K79" t="s">
+        <v>696</v>
+      </c>
+      <c r="L79" t="s">
+        <v>697</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>698</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>699</v>
+      </c>
+      <c r="X79" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>702</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>703</v>
+      </c>
+      <c r="J80" t="s">
+        <v>704</v>
+      </c>
+      <c r="K80" t="s">
+        <v>705</v>
+      </c>
+      <c r="L80" t="s">
+        <v>706</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>707</v>
+      </c>
+      <c r="O80" t="s">
+        <v>147</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>708</v>
+      </c>
+      <c r="X80" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>711</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>712</v>
+      </c>
+      <c r="J81" t="s">
+        <v>713</v>
+      </c>
+      <c r="K81" t="s">
+        <v>714</v>
+      </c>
+      <c r="L81" t="s">
+        <v>715</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>707</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>716</v>
+      </c>
+      <c r="X81" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>719</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>720</v>
+      </c>
+      <c r="J82" t="s">
+        <v>721</v>
+      </c>
+      <c r="K82" t="s">
+        <v>722</v>
+      </c>
+      <c r="L82" t="s">
+        <v>723</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>707</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>716</v>
+      </c>
+      <c r="X82" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>725</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>726</v>
+      </c>
+      <c r="J83" t="s">
+        <v>727</v>
+      </c>
+      <c r="K83" t="s">
+        <v>728</v>
+      </c>
+      <c r="L83" t="s">
+        <v>729</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>730</v>
+      </c>
+      <c r="O83" t="s">
+        <v>177</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>716</v>
+      </c>
+      <c r="X83" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>732</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>733</v>
+      </c>
+      <c r="J84" t="s">
+        <v>734</v>
+      </c>
+      <c r="K84" t="s">
+        <v>735</v>
+      </c>
+      <c r="L84" t="s">
+        <v>736</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>737</v>
+      </c>
+      <c r="O84" t="s">
+        <v>147</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>738</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>739</v>
+      </c>
+      <c r="J85" t="s">
+        <v>740</v>
+      </c>
+      <c r="K85" t="s">
+        <v>741</v>
+      </c>
+      <c r="L85" t="s">
+        <v>742</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>743</v>
+      </c>
+      <c r="O85" t="s">
+        <v>177</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>744</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>745</v>
+      </c>
+      <c r="J86" t="s">
+        <v>746</v>
+      </c>
+      <c r="K86" t="s">
+        <v>747</v>
+      </c>
+      <c r="L86" t="s">
+        <v>748</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>749</v>
+      </c>
+      <c r="O86" t="s">
+        <v>147</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>751</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>752</v>
+      </c>
+      <c r="J87" t="s">
+        <v>753</v>
+      </c>
+      <c r="K87" t="s">
+        <v>754</v>
+      </c>
+      <c r="L87" t="s">
+        <v>755</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>756</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>757</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>758</v>
+      </c>
+      <c r="J88" t="s">
+        <v>759</v>
+      </c>
+      <c r="K88" t="s">
+        <v>760</v>
+      </c>
+      <c r="L88" t="s">
+        <v>761</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>756</v>
+      </c>
+      <c r="O88" t="s">
+        <v>177</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>762</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>763</v>
+      </c>
+      <c r="J89" t="s">
+        <v>764</v>
+      </c>
+      <c r="K89" t="s">
+        <v>765</v>
+      </c>
+      <c r="L89" t="s">
+        <v>766</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>767</v>
+      </c>
+      <c r="O89" t="s">
+        <v>211</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>769</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>770</v>
+      </c>
+      <c r="J90" t="s">
+        <v>771</v>
+      </c>
+      <c r="K90" t="s">
+        <v>772</v>
+      </c>
+      <c r="L90" t="s">
+        <v>773</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>774</v>
+      </c>
+      <c r="O90" t="s">
+        <v>177</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>775</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>776</v>
+      </c>
+      <c r="J91" t="s">
+        <v>777</v>
+      </c>
+      <c r="K91" t="s">
+        <v>778</v>
+      </c>
+      <c r="L91" t="s">
+        <v>779</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>780</v>
+      </c>
+      <c r="O91" t="s">
+        <v>177</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>782</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>783</v>
+      </c>
+      <c r="J92" t="s">
+        <v>784</v>
+      </c>
+      <c r="K92" t="s">
+        <v>785</v>
+      </c>
+      <c r="L92" t="s">
+        <v>786</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>787</v>
+      </c>
+      <c r="O92" t="s">
+        <v>177</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38978</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>788</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>789</v>
+      </c>
+      <c r="J93" t="s">
+        <v>790</v>
+      </c>
+      <c r="K93" t="s">
+        <v>791</v>
+      </c>
+      <c r="L93" t="s">
+        <v>792</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>793</v>
+      </c>
+      <c r="O93" t="s">
+        <v>147</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
